--- a/college_program.xlsx
+++ b/college_program.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="383">
   <si>
     <t>gender</t>
   </si>
@@ -708,7 +708,7 @@
     <t xml:space="preserve">Samson Polytechnic College of Davao </t>
   </si>
   <si>
-    <t>BLIS</t>
+    <t>Library and Information Science</t>
   </si>
   <si>
     <t>Polytechnic University of the Philippines - Manila</t>
@@ -948,9 +948,6 @@
     <t>Writing, Gaming</t>
   </si>
   <si>
-    <t xml:space="preserve">Btech computer science and engineering in Data science </t>
-  </si>
-  <si>
     <t xml:space="preserve">Matrusri engineering college </t>
   </si>
   <si>
@@ -963,7 +960,7 @@
     <t>Sports, Music and Dancing, Debate and Public Speaking, Volunteer Work, Coding and Technology, Gaming</t>
   </si>
   <si>
-    <t>Information systems and technologies</t>
+    <t>BS Information systems</t>
   </si>
   <si>
     <t>Bilkent</t>
@@ -972,7 +969,7 @@
     <t>Coding and Technology, Gaming</t>
   </si>
   <si>
-    <t>Electronics and Communication</t>
+    <t>BS Electronics and Communication</t>
   </si>
   <si>
     <t>Rajiv Gandhi Institute of Technology, Kottayam</t>
@@ -984,7 +981,7 @@
     <t>Writing, Debate and Public Speaking, music</t>
   </si>
   <si>
-    <t>AS Biological Sciences</t>
+    <t>BS Biology</t>
   </si>
   <si>
     <t>Montgomery College</t>
@@ -996,7 +993,7 @@
     <t>Sports, Music and Dancing, Writing, Debate and Public Speaking, Science Clubs, Gaming</t>
   </si>
   <si>
-    <t>BAS Telecommunication Engineering</t>
+    <t>BS Telecommunication Engineering</t>
   </si>
   <si>
     <t>Politeknik Negeri Jakarta</t>
@@ -1008,9 +1005,6 @@
     <t>Science Clubs, Volunteer Work, Coding and Technology</t>
   </si>
   <si>
-    <t>ENIGINEERING</t>
-  </si>
-  <si>
     <t>RAJIV GANDHI INSTITUTE OF TECHNOLOGY KOTTAYAM</t>
   </si>
   <si>
@@ -1020,9 +1014,6 @@
     <t>Music and Dancing, Writing, Debate and Public Speaking</t>
   </si>
   <si>
-    <t>B.Tech Electronics and Communication</t>
-  </si>
-  <si>
     <t>NIT Bhopal</t>
   </si>
   <si>
@@ -1035,9 +1026,6 @@
     <t>Sports, Debate and Public Speaking, Science Clubs, Volunteer Work</t>
   </si>
   <si>
-    <t xml:space="preserve">B.Tech Computer Science Engineering </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jamia Millia Islamia </t>
   </si>
   <si>
@@ -1047,9 +1035,6 @@
     <t>Sports, Arts and Crafts, Writing, Coding and Technology, Photography, Gaming</t>
   </si>
   <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
     <t>Universidade Federal de Santa Catarina - UFSC</t>
   </si>
   <si>
@@ -1059,9 +1044,6 @@
     <t>Sports, Music and Dancing, Gaming, Skateboarding</t>
   </si>
   <si>
-    <t>BCA</t>
-  </si>
-  <si>
     <t>Techno India Hoogly Campus</t>
   </si>
   <si>
@@ -1095,7 +1077,7 @@
     <t>I did none</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Engineering </t>
+    <t xml:space="preserve">BS Electrical Engineering </t>
   </si>
   <si>
     <t xml:space="preserve">University of Cincinnati </t>
@@ -1113,7 +1095,7 @@
     <t>Sports, Music and Dancing, Drama and Theater, Writing</t>
   </si>
   <si>
-    <t>Astrophysics</t>
+    <t>BS Astrophysics</t>
   </si>
   <si>
     <t>University of Antioquia (Colombia)</t>
@@ -1140,9 +1122,6 @@
     <t>Mathematics, Science, History</t>
   </si>
   <si>
-    <t xml:space="preserve">BE, Electronics and Telecommunications </t>
-  </si>
-  <si>
     <t>Siddaganga Institute of technology Tumkur Karnataka India</t>
   </si>
   <si>
@@ -1158,16 +1137,13 @@
     <t>Debate and Public Speaking</t>
   </si>
   <si>
-    <t>B.Tech in AI</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRM institute of science and technology </t>
   </si>
   <si>
     <t>Sports, Arts and Crafts, Debate and Public Speaking, Science Clubs, Coding and Technology, Gaming</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical engineering </t>
+    <t xml:space="preserve">BS Electrical engineering </t>
   </si>
   <si>
     <t>AbdelMalek Saadi university, faculty of science and technology ( it's in Morocco)</t>
@@ -1177,13 +1153,22 @@
   </si>
   <si>
     <t>Writing, Debate and Public Speaking</t>
+  </si>
+  <si>
+    <t>Vellore Institute of Technology, Chennai, India</t>
+  </si>
+  <si>
+    <t>Science Clubs, Coding and Technology, Gaming</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1209,12 +1194,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,14 +1216,68 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF4CCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF4CCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF4CCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF4CCCC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1274,16 +1317,35 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <font/>
       <fill>
@@ -1301,12 +1363,78 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="2" pivot="0" name="Sheet1-style">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A101:Y101" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="25">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+    <tableColumn name="Column15" id="15"/>
+    <tableColumn name="Column16" id="16"/>
+    <tableColumn name="Column17" id="17"/>
+    <tableColumn name="Column18" id="18"/>
+    <tableColumn name="Column19" id="19"/>
+    <tableColumn name="Column20" id="20"/>
+    <tableColumn name="Column21" id="21"/>
+    <tableColumn name="Column22" id="22"/>
+    <tableColumn name="Column23" id="23"/>
+    <tableColumn name="Column24" id="24"/>
+    <tableColumn name="Column25" id="25"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1514,7 +1642,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="20.63"/>
+    <col customWidth="1" min="3" max="3" width="42.0"/>
     <col customWidth="1" min="4" max="4" width="59.88"/>
     <col customWidth="1" min="5" max="5" width="33.0"/>
     <col customWidth="1" min="6" max="6" width="17.38"/>
@@ -1531,7 +1659,7 @@
     <col customWidth="1" min="20" max="20" width="13.75"/>
     <col customWidth="1" min="22" max="22" width="208.13"/>
     <col customWidth="1" min="23" max="23" width="59.0"/>
-    <col customWidth="1" min="24" max="24" width="90.0"/>
+    <col customWidth="1" min="24" max="25" width="90.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1607,6 +1735,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -1681,6 +1810,7 @@
       <c r="X2" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="Y2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1755,6 +1885,7 @@
       <c r="X3" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -1829,6 +1960,7 @@
       <c r="X4" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="Y4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -1903,6 +2035,7 @@
       <c r="X5" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="Y5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1977,6 +2110,7 @@
       <c r="X6" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -2051,6 +2185,7 @@
       <c r="X7" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -2125,6 +2260,7 @@
       <c r="X8" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -2199,6 +2335,7 @@
       <c r="X9" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -2273,6 +2410,7 @@
       <c r="X10" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="Y10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -2347,6 +2485,7 @@
       <c r="X11" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="Y11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -2421,6 +2560,7 @@
       <c r="X12" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="Y12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -2495,6 +2635,7 @@
       <c r="X13" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="Y13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -2569,6 +2710,7 @@
       <c r="X14" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -2643,6 +2785,7 @@
       <c r="X15" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -2717,6 +2860,7 @@
       <c r="X16" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="Y16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -2791,6 +2935,7 @@
       <c r="X17" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="Y17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -2865,6 +3010,7 @@
       <c r="X18" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="Y18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -2939,6 +3085,7 @@
       <c r="X19" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -3013,6 +3160,7 @@
       <c r="X20" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="Y20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -3087,6 +3235,7 @@
       <c r="X21" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="Y21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -3161,6 +3310,7 @@
       <c r="X22" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="Y22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
@@ -3235,6 +3385,7 @@
       <c r="X23" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="Y23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -3309,6 +3460,7 @@
       <c r="X24" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="Y24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -3383,6 +3535,7 @@
       <c r="X25" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="Y25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -3457,6 +3610,7 @@
       <c r="X26" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="Y26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
@@ -3531,6 +3685,7 @@
       <c r="X27" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="Y27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -3605,6 +3760,7 @@
       <c r="X28" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="Y28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
@@ -3679,6 +3835,7 @@
       <c r="X29" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
@@ -3753,6 +3910,7 @@
       <c r="X30" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="Y30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
@@ -3827,6 +3985,7 @@
       <c r="X31" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="Y31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
@@ -3901,6 +4060,7 @@
       <c r="X32" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="Y32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
@@ -3975,6 +4135,7 @@
       <c r="X33" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="Y33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
@@ -4049,6 +4210,7 @@
       <c r="X34" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="Y34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
@@ -4123,6 +4285,7 @@
       <c r="X35" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="Y35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
@@ -4197,6 +4360,7 @@
       <c r="X36" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="Y36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
@@ -4271,6 +4435,7 @@
       <c r="X37" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="Y37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
@@ -4345,6 +4510,7 @@
       <c r="X38" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="Y38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
@@ -4419,6 +4585,7 @@
       <c r="X39" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="Y39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
@@ -4493,6 +4660,7 @@
       <c r="X40" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="Y40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
@@ -4567,6 +4735,7 @@
       <c r="X41" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="Y41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
@@ -4641,6 +4810,7 @@
       <c r="X42" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="Y42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
@@ -4715,6 +4885,7 @@
       <c r="X43" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="Y43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
@@ -4789,6 +4960,7 @@
       <c r="X44" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="Y44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
@@ -4863,6 +5035,7 @@
       <c r="X45" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="Y45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
@@ -4937,6 +5110,7 @@
       <c r="X46" s="4" t="s">
         <v>214</v>
       </c>
+      <c r="Y46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
@@ -5011,6 +5185,7 @@
       <c r="X47" s="4" t="s">
         <v>219</v>
       </c>
+      <c r="Y47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
@@ -5085,6 +5260,7 @@
       <c r="X48" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="Y48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
@@ -5159,6 +5335,7 @@
       <c r="X49" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="Y49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
@@ -5233,6 +5410,7 @@
       <c r="X50" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="Y50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
@@ -5241,7 +5419,7 @@
       <c r="B51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -5307,6 +5485,7 @@
       <c r="X51" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="Y51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
@@ -5381,6 +5560,7 @@
       <c r="X52" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="Y52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
@@ -5455,6 +5635,7 @@
       <c r="X53" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="Y53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
@@ -5529,6 +5710,7 @@
       <c r="X54" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="Y54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
@@ -5603,6 +5785,7 @@
       <c r="X55" s="4" t="s">
         <v>250</v>
       </c>
+      <c r="Y55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
@@ -5677,6 +5860,7 @@
       <c r="X56" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="Y56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
@@ -5751,6 +5935,7 @@
       <c r="X57" s="4" t="s">
         <v>256</v>
       </c>
+      <c r="Y57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
@@ -5825,6 +6010,7 @@
       <c r="X58" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="Y58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
@@ -5899,6 +6085,7 @@
       <c r="X59" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="Y59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
@@ -5973,6 +6160,7 @@
       <c r="X60" s="4" t="s">
         <v>267</v>
       </c>
+      <c r="Y60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
@@ -6047,6 +6235,7 @@
       <c r="X61" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="Y61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
@@ -6121,6 +6310,7 @@
       <c r="X62" s="4" t="s">
         <v>274</v>
       </c>
+      <c r="Y62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
@@ -6195,6 +6385,7 @@
       <c r="X63" s="4" t="s">
         <v>276</v>
       </c>
+      <c r="Y63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
@@ -6269,6 +6460,7 @@
       <c r="X64" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="Y64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
@@ -6343,6 +6535,7 @@
       <c r="X65" s="4" t="s">
         <v>282</v>
       </c>
+      <c r="Y65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
@@ -6417,6 +6610,7 @@
       <c r="X66" s="4" t="s">
         <v>284</v>
       </c>
+      <c r="Y66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
@@ -6489,6 +6683,7 @@
       <c r="X67" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="Y67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
@@ -6563,6 +6758,7 @@
       <c r="X68" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="Y68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
@@ -6637,6 +6833,7 @@
       <c r="X69" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="Y69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
@@ -6711,6 +6908,7 @@
       <c r="X70" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="Y70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
@@ -6785,6 +6983,7 @@
       <c r="X71" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="Y71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
@@ -6859,6 +7058,7 @@
       <c r="X72" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="Y72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
@@ -6933,6 +7133,7 @@
       <c r="X73" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="Y73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
@@ -7007,6 +7208,7 @@
       <c r="X74" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="Y74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
@@ -7081,6 +7283,7 @@
       <c r="X75" s="4" t="s">
         <v>306</v>
       </c>
+      <c r="Y75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
@@ -7155,6 +7358,7 @@
       <c r="X76" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="Y76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
@@ -7229,6 +7433,7 @@
       <c r="X77" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="Y77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
@@ -7237,11 +7442,11 @@
       <c r="B78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>65</v>
@@ -7295,14 +7500,15 @@
         <v>4.0</v>
       </c>
       <c r="V78" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="W78" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="W78" s="4" t="s">
+      <c r="X78" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="X78" s="4" t="s">
-        <v>315</v>
-      </c>
+      <c r="Y78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
@@ -7311,11 +7517,11 @@
       <c r="B79" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>65</v>
@@ -7375,8 +7581,9 @@
         <v>34</v>
       </c>
       <c r="X79" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="Y79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
@@ -7385,11 +7592,11 @@
       <c r="B80" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>28</v>
@@ -7409,8 +7616,8 @@
       <c r="J80" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K80" s="6">
-        <v>66004.43</v>
+      <c r="K80" s="12">
+        <v>66000.0</v>
       </c>
       <c r="L80" s="7">
         <v>4.0</v>
@@ -7446,11 +7653,12 @@
         <v>52</v>
       </c>
       <c r="W80" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="X80" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="X80" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="Y80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
@@ -7459,11 +7667,11 @@
       <c r="B81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>65</v>
@@ -7517,14 +7725,15 @@
         <v>5.0</v>
       </c>
       <c r="V81" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W81" s="4" t="s">
         <v>85</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>326</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="Y81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
@@ -7533,11 +7742,11 @@
       <c r="B82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>65</v>
@@ -7594,11 +7803,12 @@
         <v>33</v>
       </c>
       <c r="W82" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="X82" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="X82" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="Y82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
@@ -7607,11 +7817,11 @@
       <c r="B83" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>331</v>
+      <c r="C83" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>28</v>
@@ -7620,7 +7830,7 @@
         <v>44</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>51</v>
@@ -7671,8 +7881,9 @@
         <v>61</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>334</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="Y83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
@@ -7681,11 +7892,11 @@
       <c r="B84" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>335</v>
+      <c r="C84" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>65</v>
@@ -7694,7 +7905,7 @@
         <v>38</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>31</v>
@@ -7747,6 +7958,7 @@
       <c r="X84" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="Y84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
@@ -7759,7 +7971,7 @@
         <v>70</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>28</v>
@@ -7813,14 +8025,15 @@
         <v>5.0</v>
       </c>
       <c r="V85" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W85" s="4" t="s">
         <v>61</v>
       </c>
       <c r="X85" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="Y85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
@@ -7829,11 +8042,11 @@
       <c r="B86" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>340</v>
+      <c r="C86" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>28</v>
@@ -7842,7 +8055,7 @@
         <v>44</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>31</v>
@@ -7890,11 +8103,12 @@
         <v>39</v>
       </c>
       <c r="W86" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="X86" s="4" t="s">
-        <v>343</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="Y86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
@@ -7903,11 +8117,11 @@
       <c r="B87" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>344</v>
+      <c r="C87" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>28</v>
@@ -7961,14 +8175,15 @@
         <v>5.0</v>
       </c>
       <c r="V87" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="W87" s="4" t="s">
         <v>172</v>
       </c>
       <c r="X87" s="4" t="s">
-        <v>347</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="Y87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
@@ -7977,11 +8192,11 @@
       <c r="B88" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>348</v>
+      <c r="C88" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>65</v>
@@ -7990,7 +8205,7 @@
         <v>38</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>51</v>
@@ -8041,8 +8256,9 @@
         <v>210</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>351</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="Y88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
@@ -8051,11 +8267,11 @@
       <c r="B89" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>348</v>
+      <c r="C89" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>28</v>
@@ -8115,8 +8331,9 @@
         <v>74</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>353</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="Y89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
@@ -8126,7 +8343,7 @@
         <v>135</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>99</v>
@@ -8183,14 +8400,15 @@
         <v>5.0</v>
       </c>
       <c r="V90" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="W90" s="4" t="s">
         <v>157</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>356</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="Y90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
@@ -8200,10 +8418,10 @@
         <v>25</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>28</v>
@@ -8263,8 +8481,9 @@
         <v>61</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>359</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="Y91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
@@ -8273,11 +8492,11 @@
       <c r="B92" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>360</v>
+      <c r="C92" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>65</v>
@@ -8334,11 +8553,12 @@
         <v>33</v>
       </c>
       <c r="W92" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="X92" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="Y92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
@@ -8347,11 +8567,11 @@
       <c r="B93" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>344</v>
+      <c r="C93" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>65</v>
@@ -8408,11 +8628,12 @@
         <v>171</v>
       </c>
       <c r="W93" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="X93" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="Y93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
@@ -8421,11 +8642,11 @@
       <c r="B94" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>366</v>
+      <c r="C94" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>28</v>
@@ -8434,7 +8655,7 @@
         <v>44</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>51</v>
@@ -8485,8 +8706,9 @@
         <v>157</v>
       </c>
       <c r="X94" s="4" t="s">
-        <v>368</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="Y94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
@@ -8499,7 +8721,7 @@
         <v>70</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>65</v>
@@ -8559,21 +8781,22 @@
         <v>255</v>
       </c>
       <c r="X95" s="4" t="s">
-        <v>370</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="Y95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>65</v>
@@ -8630,11 +8853,12 @@
         <v>33</v>
       </c>
       <c r="W96" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="X96" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="Y96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
@@ -8643,11 +8867,11 @@
       <c r="B97" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>375</v>
+      <c r="C97" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>65</v>
@@ -8701,7 +8925,7 @@
         <v>4.0</v>
       </c>
       <c r="V97" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="W97" s="4" t="s">
         <v>141</v>
@@ -8709,6 +8933,7 @@
       <c r="X97" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="Y97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
@@ -8721,7 +8946,7 @@
         <v>70</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>28</v>
@@ -8730,7 +8955,7 @@
         <v>44</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>31</v>
@@ -8781,8 +9006,9 @@
         <v>34</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>380</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="Y98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
@@ -8791,11 +9017,11 @@
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>381</v>
+      <c r="C99" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>65</v>
@@ -8855,8 +9081,9 @@
         <v>157</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="Y99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
@@ -8865,11 +9092,11 @@
       <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>384</v>
+      <c r="C100" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>65</v>
@@ -8926,37 +9153,90 @@
         <v>96</v>
       </c>
       <c r="W100" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="Y100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
+      <c r="A101" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" s="16">
+        <v>15.0</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="17">
+        <f>AVERAGE(K2:K100)</f>
+        <v>60360.66327</v>
+      </c>
+      <c r="L101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N101" s="18">
+        <v>85.4</v>
+      </c>
+      <c r="O101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R101" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="S101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T101" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V101" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W101" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X101" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y101" s="19" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -8967,7 +9247,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="13"/>
+      <c r="I102" s="20"/>
       <c r="J102" s="4"/>
       <c r="K102" s="11"/>
       <c r="L102" s="4"/>
@@ -8983,6 +9263,7 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -8993,7 +9274,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="13"/>
+      <c r="I103" s="20"/>
       <c r="J103" s="4"/>
       <c r="K103" s="11"/>
       <c r="L103" s="4"/>
@@ -9009,6 +9290,7 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -9019,7 +9301,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="13"/>
+      <c r="I104" s="20"/>
       <c r="J104" s="4"/>
       <c r="K104" s="11"/>
       <c r="L104" s="4"/>
@@ -9035,6 +9317,7 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -9045,7 +9328,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="13"/>
+      <c r="I105" s="20"/>
       <c r="J105" s="4"/>
       <c r="K105" s="11"/>
       <c r="L105" s="4"/>
@@ -9061,6 +9344,7 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -9071,7 +9355,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="13"/>
+      <c r="I106" s="20"/>
       <c r="J106" s="4"/>
       <c r="K106" s="11"/>
       <c r="L106" s="4"/>
@@ -9087,6 +9371,7 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -9097,7 +9382,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="13"/>
+      <c r="I107" s="20"/>
       <c r="J107" s="4"/>
       <c r="K107" s="11"/>
       <c r="L107" s="4"/>
@@ -9113,6 +9398,7 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -9123,7 +9409,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="13"/>
+      <c r="I108" s="20"/>
       <c r="J108" s="4"/>
       <c r="K108" s="11"/>
       <c r="L108" s="4"/>
@@ -9139,6 +9425,7 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -9149,7 +9436,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="13"/>
+      <c r="I109" s="20"/>
       <c r="J109" s="4"/>
       <c r="K109" s="11"/>
       <c r="L109" s="4"/>
@@ -9165,6 +9452,7 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -9175,7 +9463,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="13"/>
+      <c r="I110" s="20"/>
       <c r="J110" s="4"/>
       <c r="K110" s="11"/>
       <c r="L110" s="4"/>
@@ -9191,6 +9479,7 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -9201,7 +9490,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="13"/>
+      <c r="I111" s="20"/>
       <c r="J111" s="4"/>
       <c r="K111" s="11"/>
       <c r="L111" s="4"/>
@@ -9217,6 +9506,7 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -9227,7 +9517,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="13"/>
+      <c r="I112" s="20"/>
       <c r="J112" s="4"/>
       <c r="K112" s="11"/>
       <c r="L112" s="4"/>
@@ -9243,6 +9533,7 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -9253,7 +9544,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="13"/>
+      <c r="I113" s="20"/>
       <c r="J113" s="4"/>
       <c r="K113" s="11"/>
       <c r="L113" s="4"/>
@@ -9269,6 +9560,7 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -9279,7 +9571,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="13"/>
+      <c r="I114" s="20"/>
       <c r="J114" s="4"/>
       <c r="K114" s="11"/>
       <c r="L114" s="4"/>
@@ -9295,6 +9587,7 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -9305,7 +9598,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="13"/>
+      <c r="I115" s="20"/>
       <c r="J115" s="4"/>
       <c r="K115" s="11"/>
       <c r="L115" s="4"/>
@@ -9321,6 +9614,7 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -9331,7 +9625,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="13"/>
+      <c r="I116" s="20"/>
       <c r="J116" s="4"/>
       <c r="K116" s="11"/>
       <c r="L116" s="4"/>
@@ -9347,6 +9641,7 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -9357,7 +9652,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="13"/>
+      <c r="I117" s="20"/>
       <c r="J117" s="4"/>
       <c r="K117" s="11"/>
       <c r="L117" s="4"/>
@@ -9373,6 +9668,7 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -9383,7 +9679,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="13"/>
+      <c r="I118" s="20"/>
       <c r="J118" s="4"/>
       <c r="K118" s="11"/>
       <c r="L118" s="4"/>
@@ -9399,6 +9695,7 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -9409,7 +9706,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="13"/>
+      <c r="I119" s="20"/>
       <c r="J119" s="4"/>
       <c r="K119" s="11"/>
       <c r="L119" s="4"/>
@@ -9425,6 +9722,7 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -9435,7 +9733,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="13"/>
+      <c r="I120" s="20"/>
       <c r="J120" s="4"/>
       <c r="K120" s="11"/>
       <c r="L120" s="4"/>
@@ -9451,6 +9749,7 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -9461,7 +9760,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="13"/>
+      <c r="I121" s="20"/>
       <c r="J121" s="4"/>
       <c r="K121" s="11"/>
       <c r="L121" s="4"/>
@@ -9477,6 +9776,7 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -9487,7 +9787,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="13"/>
+      <c r="I122" s="20"/>
       <c r="J122" s="4"/>
       <c r="K122" s="11"/>
       <c r="L122" s="4"/>
@@ -9503,6 +9803,7 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -9513,7 +9814,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="13"/>
+      <c r="I123" s="20"/>
       <c r="J123" s="4"/>
       <c r="K123" s="11"/>
       <c r="L123" s="4"/>
@@ -9529,6 +9830,7 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -9539,7 +9841,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="13"/>
+      <c r="I124" s="20"/>
       <c r="J124" s="4"/>
       <c r="K124" s="11"/>
       <c r="L124" s="4"/>
@@ -9555,6 +9857,7 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -9565,7 +9868,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="13"/>
+      <c r="I125" s="20"/>
       <c r="J125" s="4"/>
       <c r="K125" s="11"/>
       <c r="L125" s="4"/>
@@ -9581,6 +9884,7 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -9591,7 +9895,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="13"/>
+      <c r="I126" s="20"/>
       <c r="J126" s="4"/>
       <c r="K126" s="11"/>
       <c r="L126" s="4"/>
@@ -9607,6 +9911,7 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -9617,7 +9922,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="13"/>
+      <c r="I127" s="20"/>
       <c r="J127" s="4"/>
       <c r="K127" s="11"/>
       <c r="L127" s="4"/>
@@ -9633,6 +9938,7 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -9643,7 +9949,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="13"/>
+      <c r="I128" s="20"/>
       <c r="J128" s="4"/>
       <c r="K128" s="11"/>
       <c r="L128" s="4"/>
@@ -9659,6 +9965,7 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -9669,7 +9976,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="13"/>
+      <c r="I129" s="20"/>
       <c r="J129" s="4"/>
       <c r="K129" s="11"/>
       <c r="L129" s="4"/>
@@ -9685,6 +9992,7 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -9695,7 +10003,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="13"/>
+      <c r="I130" s="20"/>
       <c r="J130" s="4"/>
       <c r="K130" s="11"/>
       <c r="L130" s="4"/>
@@ -9711,6 +10019,7 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -9721,7 +10030,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="13"/>
+      <c r="I131" s="20"/>
       <c r="J131" s="4"/>
       <c r="K131" s="11"/>
       <c r="L131" s="4"/>
@@ -9737,6 +10046,7 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -9747,7 +10057,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="13"/>
+      <c r="I132" s="20"/>
       <c r="J132" s="4"/>
       <c r="K132" s="11"/>
       <c r="L132" s="4"/>
@@ -9763,6 +10073,7 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -9773,7 +10084,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="13"/>
+      <c r="I133" s="20"/>
       <c r="J133" s="4"/>
       <c r="K133" s="11"/>
       <c r="L133" s="4"/>
@@ -9789,6 +10100,7 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -9799,7 +10111,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="13"/>
+      <c r="I134" s="20"/>
       <c r="J134" s="4"/>
       <c r="K134" s="11"/>
       <c r="L134" s="4"/>
@@ -9815,6 +10127,7 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -9825,7 +10138,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="13"/>
+      <c r="I135" s="20"/>
       <c r="J135" s="4"/>
       <c r="K135" s="11"/>
       <c r="L135" s="4"/>
@@ -9841,6 +10154,7 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -9851,7 +10165,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="13"/>
+      <c r="I136" s="20"/>
       <c r="J136" s="4"/>
       <c r="K136" s="11"/>
       <c r="L136" s="4"/>
@@ -9867,6 +10181,7 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -9877,7 +10192,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="13"/>
+      <c r="I137" s="20"/>
       <c r="J137" s="4"/>
       <c r="K137" s="11"/>
       <c r="L137" s="4"/>
@@ -9893,6 +10208,7 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -9903,7 +10219,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="13"/>
+      <c r="I138" s="20"/>
       <c r="J138" s="4"/>
       <c r="K138" s="11"/>
       <c r="L138" s="4"/>
@@ -9919,6 +10235,7 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -9929,7 +10246,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="13"/>
+      <c r="I139" s="20"/>
       <c r="J139" s="4"/>
       <c r="K139" s="11"/>
       <c r="L139" s="4"/>
@@ -9945,6 +10262,7 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -9955,7 +10273,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="13"/>
+      <c r="I140" s="20"/>
       <c r="J140" s="4"/>
       <c r="K140" s="11"/>
       <c r="L140" s="4"/>
@@ -9971,6 +10289,7 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -9981,7 +10300,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="13"/>
+      <c r="I141" s="20"/>
       <c r="J141" s="4"/>
       <c r="K141" s="11"/>
       <c r="L141" s="4"/>
@@ -9997,6 +10316,7 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -10007,7 +10327,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="13"/>
+      <c r="I142" s="20"/>
       <c r="J142" s="4"/>
       <c r="K142" s="11"/>
       <c r="L142" s="4"/>
@@ -10023,6 +10343,7 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -10033,7 +10354,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="13"/>
+      <c r="I143" s="20"/>
       <c r="J143" s="4"/>
       <c r="K143" s="11"/>
       <c r="L143" s="4"/>
@@ -10049,6 +10370,7 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -10059,7 +10381,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="13"/>
+      <c r="I144" s="20"/>
       <c r="J144" s="4"/>
       <c r="K144" s="11"/>
       <c r="L144" s="4"/>
@@ -10075,6 +10397,7 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -10085,7 +10408,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="13"/>
+      <c r="I145" s="20"/>
       <c r="J145" s="4"/>
       <c r="K145" s="11"/>
       <c r="L145" s="4"/>
@@ -10101,6 +10424,7 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -10111,7 +10435,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="13"/>
+      <c r="I146" s="20"/>
       <c r="J146" s="4"/>
       <c r="K146" s="11"/>
       <c r="L146" s="4"/>
@@ -10127,6 +10451,7 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -10137,7 +10462,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="13"/>
+      <c r="I147" s="20"/>
       <c r="J147" s="4"/>
       <c r="K147" s="11"/>
       <c r="L147" s="4"/>
@@ -10153,6 +10478,7 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -10163,7 +10489,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="13"/>
+      <c r="I148" s="20"/>
       <c r="J148" s="4"/>
       <c r="K148" s="11"/>
       <c r="L148" s="4"/>
@@ -10179,6 +10505,7 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -10189,7 +10516,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="13"/>
+      <c r="I149" s="20"/>
       <c r="J149" s="4"/>
       <c r="K149" s="11"/>
       <c r="L149" s="4"/>
@@ -10205,6 +10532,7 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -10215,7 +10543,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="13"/>
+      <c r="I150" s="20"/>
       <c r="J150" s="4"/>
       <c r="K150" s="11"/>
       <c r="L150" s="4"/>
@@ -10231,6 +10559,7 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -10241,7 +10570,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="13"/>
+      <c r="I151" s="20"/>
       <c r="J151" s="4"/>
       <c r="K151" s="11"/>
       <c r="L151" s="4"/>
@@ -10257,6 +10586,7 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -10267,7 +10597,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="13"/>
+      <c r="I152" s="20"/>
       <c r="J152" s="4"/>
       <c r="K152" s="11"/>
       <c r="L152" s="4"/>
@@ -10283,6 +10613,7 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -10293,7 +10624,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="13"/>
+      <c r="I153" s="20"/>
       <c r="J153" s="4"/>
       <c r="K153" s="11"/>
       <c r="L153" s="4"/>
@@ -10309,6 +10640,7 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -10319,7 +10651,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="13"/>
+      <c r="I154" s="20"/>
       <c r="J154" s="4"/>
       <c r="K154" s="11"/>
       <c r="L154" s="4"/>
@@ -10335,6 +10667,7 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -10345,7 +10678,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="13"/>
+      <c r="I155" s="20"/>
       <c r="J155" s="4"/>
       <c r="K155" s="11"/>
       <c r="L155" s="4"/>
@@ -10361,6 +10694,7 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -10371,7 +10705,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="13"/>
+      <c r="I156" s="20"/>
       <c r="J156" s="4"/>
       <c r="K156" s="11"/>
       <c r="L156" s="4"/>
@@ -10387,6 +10721,7 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -10397,7 +10732,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="13"/>
+      <c r="I157" s="20"/>
       <c r="J157" s="4"/>
       <c r="K157" s="11"/>
       <c r="L157" s="4"/>
@@ -10413,6 +10748,7 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -10423,7 +10759,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="13"/>
+      <c r="I158" s="20"/>
       <c r="J158" s="4"/>
       <c r="K158" s="11"/>
       <c r="L158" s="4"/>
@@ -10439,6 +10775,7 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -10449,7 +10786,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="13"/>
+      <c r="I159" s="20"/>
       <c r="J159" s="4"/>
       <c r="K159" s="11"/>
       <c r="L159" s="4"/>
@@ -10465,6 +10802,7 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -10475,7 +10813,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="13"/>
+      <c r="I160" s="20"/>
       <c r="J160" s="4"/>
       <c r="K160" s="11"/>
       <c r="L160" s="4"/>
@@ -10491,6 +10829,7 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -10501,7 +10840,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="13"/>
+      <c r="I161" s="20"/>
       <c r="J161" s="4"/>
       <c r="K161" s="11"/>
       <c r="L161" s="4"/>
@@ -10517,6 +10856,7 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -10527,7 +10867,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="13"/>
+      <c r="I162" s="20"/>
       <c r="J162" s="4"/>
       <c r="K162" s="11"/>
       <c r="L162" s="4"/>
@@ -10543,6 +10883,7 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -10553,7 +10894,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="13"/>
+      <c r="I163" s="20"/>
       <c r="J163" s="4"/>
       <c r="K163" s="11"/>
       <c r="L163" s="4"/>
@@ -10569,6 +10910,7 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -10579,7 +10921,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="13"/>
+      <c r="I164" s="20"/>
       <c r="J164" s="4"/>
       <c r="K164" s="11"/>
       <c r="L164" s="4"/>
@@ -10595,6 +10937,7 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -10605,7 +10948,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="13"/>
+      <c r="I165" s="20"/>
       <c r="J165" s="4"/>
       <c r="K165" s="11"/>
       <c r="L165" s="4"/>
@@ -10621,6 +10964,7 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -10631,7 +10975,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="13"/>
+      <c r="I166" s="20"/>
       <c r="J166" s="4"/>
       <c r="K166" s="11"/>
       <c r="L166" s="4"/>
@@ -10647,6 +10991,7 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -10657,7 +11002,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
-      <c r="I167" s="13"/>
+      <c r="I167" s="20"/>
       <c r="J167" s="4"/>
       <c r="K167" s="11"/>
       <c r="L167" s="4"/>
@@ -10673,6 +11018,7 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -10683,7 +11029,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="13"/>
+      <c r="I168" s="20"/>
       <c r="J168" s="4"/>
       <c r="K168" s="11"/>
       <c r="L168" s="4"/>
@@ -10699,6 +11045,7 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -10709,7 +11056,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
-      <c r="I169" s="13"/>
+      <c r="I169" s="20"/>
       <c r="J169" s="4"/>
       <c r="K169" s="11"/>
       <c r="L169" s="4"/>
@@ -10725,6 +11072,7 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -10735,7 +11083,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="13"/>
+      <c r="I170" s="20"/>
       <c r="J170" s="4"/>
       <c r="K170" s="11"/>
       <c r="L170" s="4"/>
@@ -10751,6 +11099,7 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -10761,7 +11110,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
-      <c r="I171" s="13"/>
+      <c r="I171" s="20"/>
       <c r="J171" s="4"/>
       <c r="K171" s="11"/>
       <c r="L171" s="4"/>
@@ -10777,6 +11126,7 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
       <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -10787,7 +11137,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="13"/>
+      <c r="I172" s="20"/>
       <c r="J172" s="4"/>
       <c r="K172" s="11"/>
       <c r="L172" s="4"/>
@@ -10803,6 +11153,7 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
       <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -10813,7 +11164,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
-      <c r="I173" s="13"/>
+      <c r="I173" s="20"/>
       <c r="J173" s="4"/>
       <c r="K173" s="11"/>
       <c r="L173" s="4"/>
@@ -10829,6 +11180,7 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -10839,7 +11191,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
-      <c r="I174" s="13"/>
+      <c r="I174" s="20"/>
       <c r="J174" s="4"/>
       <c r="K174" s="11"/>
       <c r="L174" s="4"/>
@@ -10855,6 +11207,7 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -10865,7 +11218,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
-      <c r="I175" s="13"/>
+      <c r="I175" s="20"/>
       <c r="J175" s="4"/>
       <c r="K175" s="11"/>
       <c r="L175" s="4"/>
@@ -10881,6 +11234,7 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -10891,7 +11245,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="13"/>
+      <c r="I176" s="20"/>
       <c r="J176" s="4"/>
       <c r="K176" s="11"/>
       <c r="L176" s="4"/>
@@ -10907,6 +11261,7 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -10917,7 +11272,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="13"/>
+      <c r="I177" s="20"/>
       <c r="J177" s="4"/>
       <c r="K177" s="11"/>
       <c r="L177" s="4"/>
@@ -10933,6 +11288,7 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -10943,7 +11299,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="13"/>
+      <c r="I178" s="20"/>
       <c r="J178" s="4"/>
       <c r="K178" s="11"/>
       <c r="L178" s="4"/>
@@ -10959,6 +11315,7 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -10969,7 +11326,7 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="13"/>
+      <c r="I179" s="20"/>
       <c r="J179" s="4"/>
       <c r="K179" s="11"/>
       <c r="L179" s="4"/>
@@ -10985,6 +11342,7 @@
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -10995,7 +11353,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="13"/>
+      <c r="I180" s="20"/>
       <c r="J180" s="4"/>
       <c r="K180" s="11"/>
       <c r="L180" s="4"/>
@@ -11011,6 +11369,7 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -11021,7 +11380,7 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
-      <c r="I181" s="13"/>
+      <c r="I181" s="20"/>
       <c r="J181" s="4"/>
       <c r="K181" s="11"/>
       <c r="L181" s="4"/>
@@ -11037,6 +11396,7 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -11047,7 +11407,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="13"/>
+      <c r="I182" s="20"/>
       <c r="J182" s="4"/>
       <c r="K182" s="11"/>
       <c r="L182" s="4"/>
@@ -11063,6 +11423,7 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -11073,7 +11434,7 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
-      <c r="I183" s="13"/>
+      <c r="I183" s="20"/>
       <c r="J183" s="4"/>
       <c r="K183" s="11"/>
       <c r="L183" s="4"/>
@@ -11089,6 +11450,7 @@
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -11099,7 +11461,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="13"/>
+      <c r="I184" s="20"/>
       <c r="J184" s="4"/>
       <c r="K184" s="11"/>
       <c r="L184" s="4"/>
@@ -11115,6 +11477,7 @@
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -11125,7 +11488,7 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="13"/>
+      <c r="I185" s="20"/>
       <c r="J185" s="4"/>
       <c r="K185" s="11"/>
       <c r="L185" s="4"/>
@@ -11141,6 +11504,7 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -11151,7 +11515,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="13"/>
+      <c r="I186" s="20"/>
       <c r="J186" s="4"/>
       <c r="K186" s="11"/>
       <c r="L186" s="4"/>
@@ -11167,6 +11531,7 @@
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -11177,7 +11542,7 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="13"/>
+      <c r="I187" s="20"/>
       <c r="J187" s="4"/>
       <c r="K187" s="11"/>
       <c r="L187" s="4"/>
@@ -11193,6 +11558,7 @@
       <c r="V187" s="4"/>
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -11203,7 +11569,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="13"/>
+      <c r="I188" s="20"/>
       <c r="J188" s="4"/>
       <c r="K188" s="11"/>
       <c r="L188" s="4"/>
@@ -11219,6 +11585,7 @@
       <c r="V188" s="4"/>
       <c r="W188" s="4"/>
       <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -11229,7 +11596,7 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
-      <c r="I189" s="13"/>
+      <c r="I189" s="20"/>
       <c r="J189" s="4"/>
       <c r="K189" s="11"/>
       <c r="L189" s="4"/>
@@ -11245,6 +11612,7 @@
       <c r="V189" s="4"/>
       <c r="W189" s="4"/>
       <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -11255,7 +11623,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="13"/>
+      <c r="I190" s="20"/>
       <c r="J190" s="4"/>
       <c r="K190" s="11"/>
       <c r="L190" s="4"/>
@@ -11271,6 +11639,7 @@
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -11281,7 +11650,7 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
-      <c r="I191" s="13"/>
+      <c r="I191" s="20"/>
       <c r="J191" s="4"/>
       <c r="K191" s="11"/>
       <c r="L191" s="4"/>
@@ -11297,6 +11666,7 @@
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -11307,7 +11677,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
-      <c r="I192" s="13"/>
+      <c r="I192" s="20"/>
       <c r="J192" s="4"/>
       <c r="K192" s="11"/>
       <c r="L192" s="4"/>
@@ -11323,6 +11693,7 @@
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -11333,7 +11704,7 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
-      <c r="I193" s="13"/>
+      <c r="I193" s="20"/>
       <c r="J193" s="4"/>
       <c r="K193" s="11"/>
       <c r="L193" s="4"/>
@@ -11349,6 +11720,7 @@
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -11359,7 +11731,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="13"/>
+      <c r="I194" s="20"/>
       <c r="J194" s="4"/>
       <c r="K194" s="11"/>
       <c r="L194" s="4"/>
@@ -11375,6 +11747,7 @@
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -11385,7 +11758,7 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="13"/>
+      <c r="I195" s="20"/>
       <c r="J195" s="4"/>
       <c r="K195" s="11"/>
       <c r="L195" s="4"/>
@@ -11401,6 +11774,7 @@
       <c r="V195" s="4"/>
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -11411,7 +11785,7 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="13"/>
+      <c r="I196" s="20"/>
       <c r="J196" s="4"/>
       <c r="K196" s="11"/>
       <c r="L196" s="4"/>
@@ -11427,6 +11801,7 @@
       <c r="V196" s="4"/>
       <c r="W196" s="4"/>
       <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -11437,7 +11812,7 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
-      <c r="I197" s="13"/>
+      <c r="I197" s="20"/>
       <c r="J197" s="4"/>
       <c r="K197" s="11"/>
       <c r="L197" s="4"/>
@@ -11453,6 +11828,7 @@
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -11463,7 +11839,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="13"/>
+      <c r="I198" s="20"/>
       <c r="J198" s="4"/>
       <c r="K198" s="11"/>
       <c r="L198" s="4"/>
@@ -11479,6 +11855,7 @@
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -11489,7 +11866,7 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
-      <c r="I199" s="13"/>
+      <c r="I199" s="20"/>
       <c r="J199" s="4"/>
       <c r="K199" s="11"/>
       <c r="L199" s="4"/>
@@ -11505,6 +11882,7 @@
       <c r="V199" s="4"/>
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -11515,7 +11893,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="13"/>
+      <c r="I200" s="20"/>
       <c r="J200" s="4"/>
       <c r="K200" s="11"/>
       <c r="L200" s="4"/>
@@ -11531,2758 +11909,2759 @@
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
       <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
     </row>
     <row r="201">
-      <c r="I201" s="14"/>
-      <c r="K201" s="15"/>
+      <c r="I201" s="21"/>
+      <c r="K201" s="22"/>
     </row>
     <row r="202">
-      <c r="I202" s="14"/>
-      <c r="K202" s="15"/>
+      <c r="I202" s="21"/>
+      <c r="K202" s="22"/>
     </row>
     <row r="203">
-      <c r="I203" s="14"/>
-      <c r="K203" s="15"/>
+      <c r="I203" s="21"/>
+      <c r="K203" s="22"/>
     </row>
     <row r="204">
-      <c r="I204" s="14"/>
-      <c r="K204" s="15"/>
+      <c r="I204" s="21"/>
+      <c r="K204" s="22"/>
     </row>
     <row r="205">
-      <c r="I205" s="14"/>
-      <c r="K205" s="15"/>
+      <c r="I205" s="21"/>
+      <c r="K205" s="22"/>
     </row>
     <row r="206">
-      <c r="I206" s="14"/>
-      <c r="K206" s="15"/>
+      <c r="I206" s="21"/>
+      <c r="K206" s="22"/>
     </row>
     <row r="207">
-      <c r="I207" s="14"/>
-      <c r="K207" s="15"/>
+      <c r="I207" s="21"/>
+      <c r="K207" s="22"/>
     </row>
     <row r="208">
-      <c r="I208" s="14"/>
-      <c r="K208" s="15"/>
+      <c r="I208" s="21"/>
+      <c r="K208" s="22"/>
     </row>
     <row r="209">
-      <c r="I209" s="14"/>
-      <c r="K209" s="15"/>
+      <c r="I209" s="21"/>
+      <c r="K209" s="22"/>
     </row>
     <row r="210">
-      <c r="I210" s="14"/>
-      <c r="K210" s="15"/>
+      <c r="I210" s="21"/>
+      <c r="K210" s="22"/>
     </row>
     <row r="211">
-      <c r="I211" s="14"/>
-      <c r="K211" s="15"/>
+      <c r="I211" s="21"/>
+      <c r="K211" s="22"/>
     </row>
     <row r="212">
-      <c r="I212" s="14"/>
-      <c r="K212" s="15"/>
+      <c r="I212" s="21"/>
+      <c r="K212" s="22"/>
     </row>
     <row r="213">
-      <c r="I213" s="14"/>
-      <c r="K213" s="15"/>
+      <c r="I213" s="21"/>
+      <c r="K213" s="22"/>
     </row>
     <row r="214">
-      <c r="I214" s="14"/>
-      <c r="K214" s="15"/>
+      <c r="I214" s="21"/>
+      <c r="K214" s="22"/>
     </row>
     <row r="215">
-      <c r="I215" s="14"/>
-      <c r="K215" s="15"/>
+      <c r="I215" s="21"/>
+      <c r="K215" s="22"/>
     </row>
     <row r="216">
-      <c r="I216" s="14"/>
-      <c r="K216" s="15"/>
+      <c r="I216" s="21"/>
+      <c r="K216" s="22"/>
     </row>
     <row r="217">
-      <c r="I217" s="14"/>
-      <c r="K217" s="15"/>
+      <c r="I217" s="21"/>
+      <c r="K217" s="22"/>
     </row>
     <row r="218">
-      <c r="I218" s="14"/>
-      <c r="K218" s="15"/>
+      <c r="I218" s="21"/>
+      <c r="K218" s="22"/>
     </row>
     <row r="219">
-      <c r="I219" s="14"/>
-      <c r="K219" s="15"/>
+      <c r="I219" s="21"/>
+      <c r="K219" s="22"/>
     </row>
     <row r="220">
-      <c r="I220" s="14"/>
-      <c r="K220" s="15"/>
+      <c r="I220" s="21"/>
+      <c r="K220" s="22"/>
     </row>
     <row r="221">
-      <c r="I221" s="14"/>
-      <c r="K221" s="15"/>
+      <c r="I221" s="21"/>
+      <c r="K221" s="22"/>
     </row>
     <row r="222">
-      <c r="I222" s="14"/>
-      <c r="K222" s="15"/>
+      <c r="I222" s="21"/>
+      <c r="K222" s="22"/>
     </row>
     <row r="223">
-      <c r="I223" s="14"/>
-      <c r="K223" s="15"/>
+      <c r="I223" s="21"/>
+      <c r="K223" s="22"/>
     </row>
     <row r="224">
-      <c r="I224" s="14"/>
-      <c r="K224" s="15"/>
+      <c r="I224" s="21"/>
+      <c r="K224" s="22"/>
     </row>
     <row r="225">
-      <c r="I225" s="14"/>
-      <c r="K225" s="15"/>
+      <c r="I225" s="21"/>
+      <c r="K225" s="22"/>
     </row>
     <row r="226">
-      <c r="I226" s="14"/>
-      <c r="K226" s="15"/>
+      <c r="I226" s="21"/>
+      <c r="K226" s="22"/>
     </row>
     <row r="227">
-      <c r="I227" s="14"/>
-      <c r="K227" s="15"/>
+      <c r="I227" s="21"/>
+      <c r="K227" s="22"/>
     </row>
     <row r="228">
-      <c r="I228" s="14"/>
-      <c r="K228" s="15"/>
+      <c r="I228" s="21"/>
+      <c r="K228" s="22"/>
     </row>
     <row r="229">
-      <c r="I229" s="14"/>
-      <c r="K229" s="15"/>
+      <c r="I229" s="21"/>
+      <c r="K229" s="22"/>
     </row>
     <row r="230">
-      <c r="I230" s="14"/>
-      <c r="K230" s="15"/>
+      <c r="I230" s="21"/>
+      <c r="K230" s="22"/>
     </row>
     <row r="231">
-      <c r="I231" s="14"/>
-      <c r="K231" s="15"/>
+      <c r="I231" s="21"/>
+      <c r="K231" s="22"/>
     </row>
     <row r="232">
-      <c r="I232" s="14"/>
-      <c r="K232" s="15"/>
+      <c r="I232" s="21"/>
+      <c r="K232" s="22"/>
     </row>
     <row r="233">
-      <c r="I233" s="14"/>
-      <c r="K233" s="15"/>
+      <c r="I233" s="21"/>
+      <c r="K233" s="22"/>
     </row>
     <row r="234">
-      <c r="I234" s="14"/>
-      <c r="K234" s="15"/>
+      <c r="I234" s="21"/>
+      <c r="K234" s="22"/>
     </row>
     <row r="235">
-      <c r="I235" s="14"/>
-      <c r="K235" s="15"/>
+      <c r="I235" s="21"/>
+      <c r="K235" s="22"/>
     </row>
     <row r="236">
-      <c r="I236" s="14"/>
-      <c r="K236" s="15"/>
+      <c r="I236" s="21"/>
+      <c r="K236" s="22"/>
     </row>
     <row r="237">
-      <c r="I237" s="14"/>
-      <c r="K237" s="15"/>
+      <c r="I237" s="21"/>
+      <c r="K237" s="22"/>
     </row>
     <row r="238">
-      <c r="I238" s="14"/>
-      <c r="K238" s="15"/>
+      <c r="I238" s="21"/>
+      <c r="K238" s="22"/>
     </row>
     <row r="239">
-      <c r="I239" s="14"/>
-      <c r="K239" s="15"/>
+      <c r="I239" s="21"/>
+      <c r="K239" s="22"/>
     </row>
     <row r="240">
-      <c r="I240" s="14"/>
-      <c r="K240" s="15"/>
+      <c r="I240" s="21"/>
+      <c r="K240" s="22"/>
     </row>
     <row r="241">
-      <c r="I241" s="14"/>
-      <c r="K241" s="15"/>
+      <c r="I241" s="21"/>
+      <c r="K241" s="22"/>
     </row>
     <row r="242">
-      <c r="I242" s="14"/>
-      <c r="K242" s="15"/>
+      <c r="I242" s="21"/>
+      <c r="K242" s="22"/>
     </row>
     <row r="243">
-      <c r="I243" s="14"/>
-      <c r="K243" s="15"/>
+      <c r="I243" s="21"/>
+      <c r="K243" s="22"/>
     </row>
     <row r="244">
-      <c r="I244" s="14"/>
-      <c r="K244" s="15"/>
+      <c r="I244" s="21"/>
+      <c r="K244" s="22"/>
     </row>
     <row r="245">
-      <c r="I245" s="14"/>
-      <c r="K245" s="15"/>
+      <c r="I245" s="21"/>
+      <c r="K245" s="22"/>
     </row>
     <row r="246">
-      <c r="I246" s="14"/>
-      <c r="K246" s="15"/>
+      <c r="I246" s="21"/>
+      <c r="K246" s="22"/>
     </row>
     <row r="247">
-      <c r="I247" s="14"/>
-      <c r="K247" s="15"/>
+      <c r="I247" s="21"/>
+      <c r="K247" s="22"/>
     </row>
     <row r="248">
-      <c r="I248" s="14"/>
-      <c r="K248" s="15"/>
+      <c r="I248" s="21"/>
+      <c r="K248" s="22"/>
     </row>
     <row r="249">
-      <c r="I249" s="14"/>
-      <c r="K249" s="15"/>
+      <c r="I249" s="21"/>
+      <c r="K249" s="22"/>
     </row>
     <row r="250">
-      <c r="I250" s="14"/>
-      <c r="K250" s="15"/>
+      <c r="I250" s="21"/>
+      <c r="K250" s="22"/>
     </row>
     <row r="251">
-      <c r="I251" s="14"/>
-      <c r="K251" s="15"/>
+      <c r="I251" s="21"/>
+      <c r="K251" s="22"/>
     </row>
     <row r="252">
-      <c r="I252" s="14"/>
-      <c r="K252" s="15"/>
+      <c r="I252" s="21"/>
+      <c r="K252" s="22"/>
     </row>
     <row r="253">
-      <c r="I253" s="14"/>
-      <c r="K253" s="15"/>
+      <c r="I253" s="21"/>
+      <c r="K253" s="22"/>
     </row>
     <row r="254">
-      <c r="I254" s="14"/>
-      <c r="K254" s="15"/>
+      <c r="I254" s="21"/>
+      <c r="K254" s="22"/>
     </row>
     <row r="255">
-      <c r="I255" s="14"/>
-      <c r="K255" s="15"/>
+      <c r="I255" s="21"/>
+      <c r="K255" s="22"/>
     </row>
     <row r="256">
-      <c r="I256" s="14"/>
-      <c r="K256" s="15"/>
+      <c r="I256" s="21"/>
+      <c r="K256" s="22"/>
     </row>
     <row r="257">
-      <c r="I257" s="14"/>
-      <c r="K257" s="15"/>
+      <c r="I257" s="21"/>
+      <c r="K257" s="22"/>
     </row>
     <row r="258">
-      <c r="I258" s="14"/>
-      <c r="K258" s="15"/>
+      <c r="I258" s="21"/>
+      <c r="K258" s="22"/>
     </row>
     <row r="259">
-      <c r="I259" s="14"/>
-      <c r="K259" s="15"/>
+      <c r="I259" s="21"/>
+      <c r="K259" s="22"/>
     </row>
     <row r="260">
-      <c r="I260" s="14"/>
-      <c r="K260" s="15"/>
+      <c r="I260" s="21"/>
+      <c r="K260" s="22"/>
     </row>
     <row r="261">
-      <c r="I261" s="14"/>
-      <c r="K261" s="15"/>
+      <c r="I261" s="21"/>
+      <c r="K261" s="22"/>
     </row>
     <row r="262">
-      <c r="I262" s="14"/>
-      <c r="K262" s="15"/>
+      <c r="I262" s="21"/>
+      <c r="K262" s="22"/>
     </row>
     <row r="263">
-      <c r="I263" s="14"/>
-      <c r="K263" s="15"/>
+      <c r="I263" s="21"/>
+      <c r="K263" s="22"/>
     </row>
     <row r="264">
-      <c r="I264" s="14"/>
-      <c r="K264" s="15"/>
+      <c r="I264" s="21"/>
+      <c r="K264" s="22"/>
     </row>
     <row r="265">
-      <c r="I265" s="14"/>
-      <c r="K265" s="15"/>
+      <c r="I265" s="21"/>
+      <c r="K265" s="22"/>
     </row>
     <row r="266">
-      <c r="I266" s="14"/>
-      <c r="K266" s="15"/>
+      <c r="I266" s="21"/>
+      <c r="K266" s="22"/>
     </row>
     <row r="267">
-      <c r="I267" s="14"/>
-      <c r="K267" s="15"/>
+      <c r="I267" s="21"/>
+      <c r="K267" s="22"/>
     </row>
     <row r="268">
-      <c r="I268" s="14"/>
-      <c r="K268" s="15"/>
+      <c r="I268" s="21"/>
+      <c r="K268" s="22"/>
     </row>
     <row r="269">
-      <c r="I269" s="14"/>
-      <c r="K269" s="15"/>
+      <c r="I269" s="21"/>
+      <c r="K269" s="22"/>
     </row>
     <row r="270">
-      <c r="I270" s="14"/>
-      <c r="K270" s="15"/>
+      <c r="I270" s="21"/>
+      <c r="K270" s="22"/>
     </row>
     <row r="271">
-      <c r="I271" s="14"/>
-      <c r="K271" s="15"/>
+      <c r="I271" s="21"/>
+      <c r="K271" s="22"/>
     </row>
     <row r="272">
-      <c r="I272" s="14"/>
-      <c r="K272" s="15"/>
+      <c r="I272" s="21"/>
+      <c r="K272" s="22"/>
     </row>
     <row r="273">
-      <c r="I273" s="14"/>
-      <c r="K273" s="15"/>
+      <c r="I273" s="21"/>
+      <c r="K273" s="22"/>
     </row>
     <row r="274">
-      <c r="I274" s="14"/>
-      <c r="K274" s="15"/>
+      <c r="I274" s="21"/>
+      <c r="K274" s="22"/>
     </row>
     <row r="275">
-      <c r="I275" s="14"/>
-      <c r="K275" s="15"/>
+      <c r="I275" s="21"/>
+      <c r="K275" s="22"/>
     </row>
     <row r="276">
-      <c r="I276" s="14"/>
-      <c r="K276" s="15"/>
+      <c r="I276" s="21"/>
+      <c r="K276" s="22"/>
     </row>
     <row r="277">
-      <c r="I277" s="14"/>
-      <c r="K277" s="15"/>
+      <c r="I277" s="21"/>
+      <c r="K277" s="22"/>
     </row>
     <row r="278">
-      <c r="I278" s="14"/>
-      <c r="K278" s="15"/>
+      <c r="I278" s="21"/>
+      <c r="K278" s="22"/>
     </row>
     <row r="279">
-      <c r="I279" s="14"/>
-      <c r="K279" s="15"/>
+      <c r="I279" s="21"/>
+      <c r="K279" s="22"/>
     </row>
     <row r="280">
-      <c r="I280" s="14"/>
-      <c r="K280" s="15"/>
+      <c r="I280" s="21"/>
+      <c r="K280" s="22"/>
     </row>
     <row r="281">
-      <c r="I281" s="14"/>
-      <c r="K281" s="15"/>
+      <c r="I281" s="21"/>
+      <c r="K281" s="22"/>
     </row>
     <row r="282">
-      <c r="I282" s="14"/>
-      <c r="K282" s="15"/>
+      <c r="I282" s="21"/>
+      <c r="K282" s="22"/>
     </row>
     <row r="283">
-      <c r="I283" s="14"/>
-      <c r="K283" s="15"/>
+      <c r="I283" s="21"/>
+      <c r="K283" s="22"/>
     </row>
     <row r="284">
-      <c r="I284" s="14"/>
-      <c r="K284" s="15"/>
+      <c r="I284" s="21"/>
+      <c r="K284" s="22"/>
     </row>
     <row r="285">
-      <c r="I285" s="14"/>
-      <c r="K285" s="15"/>
+      <c r="I285" s="21"/>
+      <c r="K285" s="22"/>
     </row>
     <row r="286">
-      <c r="I286" s="14"/>
-      <c r="K286" s="15"/>
+      <c r="I286" s="21"/>
+      <c r="K286" s="22"/>
     </row>
     <row r="287">
-      <c r="I287" s="14"/>
-      <c r="K287" s="15"/>
+      <c r="I287" s="21"/>
+      <c r="K287" s="22"/>
     </row>
     <row r="288">
-      <c r="I288" s="14"/>
-      <c r="K288" s="15"/>
+      <c r="I288" s="21"/>
+      <c r="K288" s="22"/>
     </row>
     <row r="289">
-      <c r="I289" s="14"/>
-      <c r="K289" s="15"/>
+      <c r="I289" s="21"/>
+      <c r="K289" s="22"/>
     </row>
     <row r="290">
-      <c r="I290" s="14"/>
-      <c r="K290" s="15"/>
+      <c r="I290" s="21"/>
+      <c r="K290" s="22"/>
     </row>
     <row r="291">
-      <c r="I291" s="14"/>
-      <c r="K291" s="15"/>
+      <c r="I291" s="21"/>
+      <c r="K291" s="22"/>
     </row>
     <row r="292">
-      <c r="I292" s="14"/>
-      <c r="K292" s="15"/>
+      <c r="I292" s="21"/>
+      <c r="K292" s="22"/>
     </row>
     <row r="293">
-      <c r="I293" s="14"/>
-      <c r="K293" s="15"/>
+      <c r="I293" s="21"/>
+      <c r="K293" s="22"/>
     </row>
     <row r="294">
-      <c r="I294" s="14"/>
-      <c r="K294" s="15"/>
+      <c r="I294" s="21"/>
+      <c r="K294" s="22"/>
     </row>
     <row r="295">
-      <c r="I295" s="14"/>
-      <c r="K295" s="15"/>
+      <c r="I295" s="21"/>
+      <c r="K295" s="22"/>
     </row>
     <row r="296">
-      <c r="I296" s="14"/>
-      <c r="K296" s="15"/>
+      <c r="I296" s="21"/>
+      <c r="K296" s="22"/>
     </row>
     <row r="297">
-      <c r="I297" s="14"/>
-      <c r="K297" s="15"/>
+      <c r="I297" s="21"/>
+      <c r="K297" s="22"/>
     </row>
     <row r="298">
-      <c r="I298" s="14"/>
-      <c r="K298" s="15"/>
+      <c r="I298" s="21"/>
+      <c r="K298" s="22"/>
     </row>
     <row r="299">
-      <c r="I299" s="14"/>
-      <c r="K299" s="15"/>
+      <c r="I299" s="21"/>
+      <c r="K299" s="22"/>
     </row>
     <row r="300">
-      <c r="I300" s="14"/>
-      <c r="K300" s="15"/>
+      <c r="I300" s="21"/>
+      <c r="K300" s="22"/>
     </row>
     <row r="301">
-      <c r="I301" s="14"/>
-      <c r="K301" s="15"/>
+      <c r="I301" s="21"/>
+      <c r="K301" s="22"/>
     </row>
     <row r="302">
-      <c r="I302" s="14"/>
-      <c r="K302" s="15"/>
+      <c r="I302" s="21"/>
+      <c r="K302" s="22"/>
     </row>
     <row r="303">
-      <c r="I303" s="14"/>
-      <c r="K303" s="15"/>
+      <c r="I303" s="21"/>
+      <c r="K303" s="22"/>
     </row>
     <row r="304">
-      <c r="I304" s="14"/>
-      <c r="K304" s="15"/>
+      <c r="I304" s="21"/>
+      <c r="K304" s="22"/>
     </row>
     <row r="305">
-      <c r="I305" s="14"/>
-      <c r="K305" s="15"/>
+      <c r="I305" s="21"/>
+      <c r="K305" s="22"/>
     </row>
     <row r="306">
-      <c r="I306" s="14"/>
-      <c r="K306" s="15"/>
+      <c r="I306" s="21"/>
+      <c r="K306" s="22"/>
     </row>
     <row r="307">
-      <c r="I307" s="14"/>
-      <c r="K307" s="15"/>
+      <c r="I307" s="21"/>
+      <c r="K307" s="22"/>
     </row>
     <row r="308">
-      <c r="I308" s="14"/>
-      <c r="K308" s="15"/>
+      <c r="I308" s="21"/>
+      <c r="K308" s="22"/>
     </row>
     <row r="309">
-      <c r="I309" s="14"/>
-      <c r="K309" s="15"/>
+      <c r="I309" s="21"/>
+      <c r="K309" s="22"/>
     </row>
     <row r="310">
-      <c r="I310" s="14"/>
-      <c r="K310" s="15"/>
+      <c r="I310" s="21"/>
+      <c r="K310" s="22"/>
     </row>
     <row r="311">
-      <c r="I311" s="14"/>
-      <c r="K311" s="15"/>
+      <c r="I311" s="21"/>
+      <c r="K311" s="22"/>
     </row>
     <row r="312">
-      <c r="I312" s="14"/>
-      <c r="K312" s="15"/>
+      <c r="I312" s="21"/>
+      <c r="K312" s="22"/>
     </row>
     <row r="313">
-      <c r="I313" s="14"/>
-      <c r="K313" s="15"/>
+      <c r="I313" s="21"/>
+      <c r="K313" s="22"/>
     </row>
     <row r="314">
-      <c r="I314" s="14"/>
-      <c r="K314" s="15"/>
+      <c r="I314" s="21"/>
+      <c r="K314" s="22"/>
     </row>
     <row r="315">
-      <c r="I315" s="14"/>
-      <c r="K315" s="15"/>
+      <c r="I315" s="21"/>
+      <c r="K315" s="22"/>
     </row>
     <row r="316">
-      <c r="I316" s="14"/>
-      <c r="K316" s="15"/>
+      <c r="I316" s="21"/>
+      <c r="K316" s="22"/>
     </row>
     <row r="317">
-      <c r="I317" s="14"/>
-      <c r="K317" s="15"/>
+      <c r="I317" s="21"/>
+      <c r="K317" s="22"/>
     </row>
     <row r="318">
-      <c r="I318" s="14"/>
-      <c r="K318" s="15"/>
+      <c r="I318" s="21"/>
+      <c r="K318" s="22"/>
     </row>
     <row r="319">
-      <c r="I319" s="14"/>
-      <c r="K319" s="15"/>
+      <c r="I319" s="21"/>
+      <c r="K319" s="22"/>
     </row>
     <row r="320">
-      <c r="I320" s="14"/>
-      <c r="K320" s="15"/>
+      <c r="I320" s="21"/>
+      <c r="K320" s="22"/>
     </row>
     <row r="321">
-      <c r="I321" s="14"/>
-      <c r="K321" s="15"/>
+      <c r="I321" s="21"/>
+      <c r="K321" s="22"/>
     </row>
     <row r="322">
-      <c r="I322" s="14"/>
-      <c r="K322" s="15"/>
+      <c r="I322" s="21"/>
+      <c r="K322" s="22"/>
     </row>
     <row r="323">
-      <c r="I323" s="14"/>
-      <c r="K323" s="15"/>
+      <c r="I323" s="21"/>
+      <c r="K323" s="22"/>
     </row>
     <row r="324">
-      <c r="I324" s="14"/>
-      <c r="K324" s="15"/>
+      <c r="I324" s="21"/>
+      <c r="K324" s="22"/>
     </row>
     <row r="325">
-      <c r="I325" s="14"/>
-      <c r="K325" s="15"/>
+      <c r="I325" s="21"/>
+      <c r="K325" s="22"/>
     </row>
     <row r="326">
-      <c r="I326" s="14"/>
-      <c r="K326" s="15"/>
+      <c r="I326" s="21"/>
+      <c r="K326" s="22"/>
     </row>
     <row r="327">
-      <c r="I327" s="14"/>
-      <c r="K327" s="15"/>
+      <c r="I327" s="21"/>
+      <c r="K327" s="22"/>
     </row>
     <row r="328">
-      <c r="I328" s="14"/>
-      <c r="K328" s="15"/>
+      <c r="I328" s="21"/>
+      <c r="K328" s="22"/>
     </row>
     <row r="329">
-      <c r="I329" s="14"/>
-      <c r="K329" s="15"/>
+      <c r="I329" s="21"/>
+      <c r="K329" s="22"/>
     </row>
     <row r="330">
-      <c r="I330" s="14"/>
-      <c r="K330" s="15"/>
+      <c r="I330" s="21"/>
+      <c r="K330" s="22"/>
     </row>
     <row r="331">
-      <c r="I331" s="14"/>
-      <c r="K331" s="15"/>
+      <c r="I331" s="21"/>
+      <c r="K331" s="22"/>
     </row>
     <row r="332">
-      <c r="I332" s="14"/>
-      <c r="K332" s="15"/>
+      <c r="I332" s="21"/>
+      <c r="K332" s="22"/>
     </row>
     <row r="333">
-      <c r="I333" s="14"/>
-      <c r="K333" s="15"/>
+      <c r="I333" s="21"/>
+      <c r="K333" s="22"/>
     </row>
     <row r="334">
-      <c r="I334" s="14"/>
-      <c r="K334" s="15"/>
+      <c r="I334" s="21"/>
+      <c r="K334" s="22"/>
     </row>
     <row r="335">
-      <c r="I335" s="14"/>
-      <c r="K335" s="15"/>
+      <c r="I335" s="21"/>
+      <c r="K335" s="22"/>
     </row>
     <row r="336">
-      <c r="I336" s="14"/>
-      <c r="K336" s="15"/>
+      <c r="I336" s="21"/>
+      <c r="K336" s="22"/>
     </row>
     <row r="337">
-      <c r="I337" s="14"/>
-      <c r="K337" s="15"/>
+      <c r="I337" s="21"/>
+      <c r="K337" s="22"/>
     </row>
     <row r="338">
-      <c r="I338" s="14"/>
-      <c r="K338" s="15"/>
+      <c r="I338" s="21"/>
+      <c r="K338" s="22"/>
     </row>
     <row r="339">
-      <c r="I339" s="14"/>
-      <c r="K339" s="15"/>
+      <c r="I339" s="21"/>
+      <c r="K339" s="22"/>
     </row>
     <row r="340">
-      <c r="I340" s="14"/>
-      <c r="K340" s="15"/>
+      <c r="I340" s="21"/>
+      <c r="K340" s="22"/>
     </row>
     <row r="341">
-      <c r="I341" s="14"/>
-      <c r="K341" s="15"/>
+      <c r="I341" s="21"/>
+      <c r="K341" s="22"/>
     </row>
     <row r="342">
-      <c r="I342" s="14"/>
-      <c r="K342" s="15"/>
+      <c r="I342" s="21"/>
+      <c r="K342" s="22"/>
     </row>
     <row r="343">
-      <c r="I343" s="14"/>
-      <c r="K343" s="15"/>
+      <c r="I343" s="21"/>
+      <c r="K343" s="22"/>
     </row>
     <row r="344">
-      <c r="I344" s="14"/>
-      <c r="K344" s="15"/>
+      <c r="I344" s="21"/>
+      <c r="K344" s="22"/>
     </row>
     <row r="345">
-      <c r="I345" s="14"/>
-      <c r="K345" s="15"/>
+      <c r="I345" s="21"/>
+      <c r="K345" s="22"/>
     </row>
     <row r="346">
-      <c r="I346" s="14"/>
-      <c r="K346" s="15"/>
+      <c r="I346" s="21"/>
+      <c r="K346" s="22"/>
     </row>
     <row r="347">
-      <c r="I347" s="14"/>
-      <c r="K347" s="15"/>
+      <c r="I347" s="21"/>
+      <c r="K347" s="22"/>
     </row>
     <row r="348">
-      <c r="I348" s="14"/>
-      <c r="K348" s="15"/>
+      <c r="I348" s="21"/>
+      <c r="K348" s="22"/>
     </row>
     <row r="349">
-      <c r="I349" s="14"/>
-      <c r="K349" s="15"/>
+      <c r="I349" s="21"/>
+      <c r="K349" s="22"/>
     </row>
     <row r="350">
-      <c r="I350" s="14"/>
-      <c r="K350" s="15"/>
+      <c r="I350" s="21"/>
+      <c r="K350" s="22"/>
     </row>
     <row r="351">
-      <c r="I351" s="14"/>
-      <c r="K351" s="15"/>
+      <c r="I351" s="21"/>
+      <c r="K351" s="22"/>
     </row>
     <row r="352">
-      <c r="I352" s="14"/>
-      <c r="K352" s="15"/>
+      <c r="I352" s="21"/>
+      <c r="K352" s="22"/>
     </row>
     <row r="353">
-      <c r="I353" s="14"/>
-      <c r="K353" s="15"/>
+      <c r="I353" s="21"/>
+      <c r="K353" s="22"/>
     </row>
     <row r="354">
-      <c r="I354" s="14"/>
-      <c r="K354" s="15"/>
+      <c r="I354" s="21"/>
+      <c r="K354" s="22"/>
     </row>
     <row r="355">
-      <c r="I355" s="14"/>
-      <c r="K355" s="15"/>
+      <c r="I355" s="21"/>
+      <c r="K355" s="22"/>
     </row>
     <row r="356">
-      <c r="I356" s="14"/>
-      <c r="K356" s="15"/>
+      <c r="I356" s="21"/>
+      <c r="K356" s="22"/>
     </row>
     <row r="357">
-      <c r="I357" s="14"/>
-      <c r="K357" s="15"/>
+      <c r="I357" s="21"/>
+      <c r="K357" s="22"/>
     </row>
     <row r="358">
-      <c r="I358" s="14"/>
-      <c r="K358" s="15"/>
+      <c r="I358" s="21"/>
+      <c r="K358" s="22"/>
     </row>
     <row r="359">
-      <c r="I359" s="14"/>
-      <c r="K359" s="15"/>
+      <c r="I359" s="21"/>
+      <c r="K359" s="22"/>
     </row>
     <row r="360">
-      <c r="I360" s="14"/>
-      <c r="K360" s="15"/>
+      <c r="I360" s="21"/>
+      <c r="K360" s="22"/>
     </row>
     <row r="361">
-      <c r="I361" s="14"/>
-      <c r="K361" s="15"/>
+      <c r="I361" s="21"/>
+      <c r="K361" s="22"/>
     </row>
     <row r="362">
-      <c r="I362" s="14"/>
-      <c r="K362" s="15"/>
+      <c r="I362" s="21"/>
+      <c r="K362" s="22"/>
     </row>
     <row r="363">
-      <c r="I363" s="14"/>
-      <c r="K363" s="15"/>
+      <c r="I363" s="21"/>
+      <c r="K363" s="22"/>
     </row>
     <row r="364">
-      <c r="I364" s="14"/>
-      <c r="K364" s="15"/>
+      <c r="I364" s="21"/>
+      <c r="K364" s="22"/>
     </row>
     <row r="365">
-      <c r="I365" s="14"/>
-      <c r="K365" s="15"/>
+      <c r="I365" s="21"/>
+      <c r="K365" s="22"/>
     </row>
     <row r="366">
-      <c r="I366" s="14"/>
-      <c r="K366" s="15"/>
+      <c r="I366" s="21"/>
+      <c r="K366" s="22"/>
     </row>
     <row r="367">
-      <c r="I367" s="14"/>
-      <c r="K367" s="15"/>
+      <c r="I367" s="21"/>
+      <c r="K367" s="22"/>
     </row>
     <row r="368">
-      <c r="I368" s="14"/>
-      <c r="K368" s="15"/>
+      <c r="I368" s="21"/>
+      <c r="K368" s="22"/>
     </row>
     <row r="369">
-      <c r="I369" s="14"/>
-      <c r="K369" s="15"/>
+      <c r="I369" s="21"/>
+      <c r="K369" s="22"/>
     </row>
     <row r="370">
-      <c r="I370" s="14"/>
-      <c r="K370" s="15"/>
+      <c r="I370" s="21"/>
+      <c r="K370" s="22"/>
     </row>
     <row r="371">
-      <c r="I371" s="14"/>
-      <c r="K371" s="15"/>
+      <c r="I371" s="21"/>
+      <c r="K371" s="22"/>
     </row>
     <row r="372">
-      <c r="I372" s="14"/>
-      <c r="K372" s="15"/>
+      <c r="I372" s="21"/>
+      <c r="K372" s="22"/>
     </row>
     <row r="373">
-      <c r="I373" s="14"/>
-      <c r="K373" s="15"/>
+      <c r="I373" s="21"/>
+      <c r="K373" s="22"/>
     </row>
     <row r="374">
-      <c r="I374" s="14"/>
-      <c r="K374" s="15"/>
+      <c r="I374" s="21"/>
+      <c r="K374" s="22"/>
     </row>
     <row r="375">
-      <c r="I375" s="14"/>
-      <c r="K375" s="15"/>
+      <c r="I375" s="21"/>
+      <c r="K375" s="22"/>
     </row>
     <row r="376">
-      <c r="I376" s="14"/>
-      <c r="K376" s="15"/>
+      <c r="I376" s="21"/>
+      <c r="K376" s="22"/>
     </row>
     <row r="377">
-      <c r="I377" s="14"/>
-      <c r="K377" s="15"/>
+      <c r="I377" s="21"/>
+      <c r="K377" s="22"/>
     </row>
     <row r="378">
-      <c r="I378" s="14"/>
-      <c r="K378" s="15"/>
+      <c r="I378" s="21"/>
+      <c r="K378" s="22"/>
     </row>
     <row r="379">
-      <c r="I379" s="14"/>
-      <c r="K379" s="15"/>
+      <c r="I379" s="21"/>
+      <c r="K379" s="22"/>
     </row>
     <row r="380">
-      <c r="I380" s="14"/>
-      <c r="K380" s="15"/>
+      <c r="I380" s="21"/>
+      <c r="K380" s="22"/>
     </row>
     <row r="381">
-      <c r="I381" s="14"/>
-      <c r="K381" s="15"/>
+      <c r="I381" s="21"/>
+      <c r="K381" s="22"/>
     </row>
     <row r="382">
-      <c r="I382" s="14"/>
-      <c r="K382" s="15"/>
+      <c r="I382" s="21"/>
+      <c r="K382" s="22"/>
     </row>
     <row r="383">
-      <c r="I383" s="14"/>
-      <c r="K383" s="15"/>
+      <c r="I383" s="21"/>
+      <c r="K383" s="22"/>
     </row>
     <row r="384">
-      <c r="I384" s="14"/>
-      <c r="K384" s="15"/>
+      <c r="I384" s="21"/>
+      <c r="K384" s="22"/>
     </row>
     <row r="385">
-      <c r="I385" s="14"/>
-      <c r="K385" s="15"/>
+      <c r="I385" s="21"/>
+      <c r="K385" s="22"/>
     </row>
     <row r="386">
-      <c r="I386" s="14"/>
-      <c r="K386" s="15"/>
+      <c r="I386" s="21"/>
+      <c r="K386" s="22"/>
     </row>
     <row r="387">
-      <c r="I387" s="14"/>
-      <c r="K387" s="15"/>
+      <c r="I387" s="21"/>
+      <c r="K387" s="22"/>
     </row>
     <row r="388">
-      <c r="I388" s="14"/>
-      <c r="K388" s="15"/>
+      <c r="I388" s="21"/>
+      <c r="K388" s="22"/>
     </row>
     <row r="389">
-      <c r="I389" s="14"/>
-      <c r="K389" s="15"/>
+      <c r="I389" s="21"/>
+      <c r="K389" s="22"/>
     </row>
     <row r="390">
-      <c r="I390" s="14"/>
-      <c r="K390" s="15"/>
+      <c r="I390" s="21"/>
+      <c r="K390" s="22"/>
     </row>
     <row r="391">
-      <c r="I391" s="14"/>
-      <c r="K391" s="15"/>
+      <c r="I391" s="21"/>
+      <c r="K391" s="22"/>
     </row>
     <row r="392">
-      <c r="I392" s="14"/>
-      <c r="K392" s="15"/>
+      <c r="I392" s="21"/>
+      <c r="K392" s="22"/>
     </row>
     <row r="393">
-      <c r="I393" s="14"/>
-      <c r="K393" s="15"/>
+      <c r="I393" s="21"/>
+      <c r="K393" s="22"/>
     </row>
     <row r="394">
-      <c r="I394" s="14"/>
-      <c r="K394" s="15"/>
+      <c r="I394" s="21"/>
+      <c r="K394" s="22"/>
     </row>
     <row r="395">
-      <c r="I395" s="14"/>
-      <c r="K395" s="15"/>
+      <c r="I395" s="21"/>
+      <c r="K395" s="22"/>
     </row>
     <row r="396">
-      <c r="I396" s="14"/>
-      <c r="K396" s="15"/>
+      <c r="I396" s="21"/>
+      <c r="K396" s="22"/>
     </row>
     <row r="397">
-      <c r="I397" s="14"/>
-      <c r="K397" s="15"/>
+      <c r="I397" s="21"/>
+      <c r="K397" s="22"/>
     </row>
     <row r="398">
-      <c r="I398" s="14"/>
-      <c r="K398" s="15"/>
+      <c r="I398" s="21"/>
+      <c r="K398" s="22"/>
     </row>
     <row r="399">
-      <c r="I399" s="14"/>
-      <c r="K399" s="15"/>
+      <c r="I399" s="21"/>
+      <c r="K399" s="22"/>
     </row>
     <row r="400">
-      <c r="I400" s="14"/>
-      <c r="K400" s="15"/>
+      <c r="I400" s="21"/>
+      <c r="K400" s="22"/>
     </row>
     <row r="401">
-      <c r="I401" s="14"/>
-      <c r="K401" s="15"/>
+      <c r="I401" s="21"/>
+      <c r="K401" s="22"/>
     </row>
     <row r="402">
-      <c r="I402" s="14"/>
-      <c r="K402" s="15"/>
+      <c r="I402" s="21"/>
+      <c r="K402" s="22"/>
     </row>
     <row r="403">
-      <c r="I403" s="14"/>
-      <c r="K403" s="15"/>
+      <c r="I403" s="21"/>
+      <c r="K403" s="22"/>
     </row>
     <row r="404">
-      <c r="I404" s="14"/>
-      <c r="K404" s="15"/>
+      <c r="I404" s="21"/>
+      <c r="K404" s="22"/>
     </row>
     <row r="405">
-      <c r="I405" s="14"/>
-      <c r="K405" s="15"/>
+      <c r="I405" s="21"/>
+      <c r="K405" s="22"/>
     </row>
     <row r="406">
-      <c r="I406" s="14"/>
-      <c r="K406" s="15"/>
+      <c r="I406" s="21"/>
+      <c r="K406" s="22"/>
     </row>
     <row r="407">
-      <c r="I407" s="14"/>
-      <c r="K407" s="15"/>
+      <c r="I407" s="21"/>
+      <c r="K407" s="22"/>
     </row>
     <row r="408">
-      <c r="I408" s="14"/>
-      <c r="K408" s="15"/>
+      <c r="I408" s="21"/>
+      <c r="K408" s="22"/>
     </row>
     <row r="409">
-      <c r="I409" s="14"/>
-      <c r="K409" s="15"/>
+      <c r="I409" s="21"/>
+      <c r="K409" s="22"/>
     </row>
     <row r="410">
-      <c r="I410" s="14"/>
-      <c r="K410" s="15"/>
+      <c r="I410" s="21"/>
+      <c r="K410" s="22"/>
     </row>
     <row r="411">
-      <c r="I411" s="14"/>
-      <c r="K411" s="15"/>
+      <c r="I411" s="21"/>
+      <c r="K411" s="22"/>
     </row>
     <row r="412">
-      <c r="I412" s="14"/>
-      <c r="K412" s="15"/>
+      <c r="I412" s="21"/>
+      <c r="K412" s="22"/>
     </row>
     <row r="413">
-      <c r="I413" s="14"/>
-      <c r="K413" s="15"/>
+      <c r="I413" s="21"/>
+      <c r="K413" s="22"/>
     </row>
     <row r="414">
-      <c r="I414" s="14"/>
-      <c r="K414" s="15"/>
+      <c r="I414" s="21"/>
+      <c r="K414" s="22"/>
     </row>
     <row r="415">
-      <c r="I415" s="14"/>
-      <c r="K415" s="15"/>
+      <c r="I415" s="21"/>
+      <c r="K415" s="22"/>
     </row>
     <row r="416">
-      <c r="I416" s="14"/>
-      <c r="K416" s="15"/>
+      <c r="I416" s="21"/>
+      <c r="K416" s="22"/>
     </row>
     <row r="417">
-      <c r="I417" s="14"/>
-      <c r="K417" s="15"/>
+      <c r="I417" s="21"/>
+      <c r="K417" s="22"/>
     </row>
     <row r="418">
-      <c r="I418" s="14"/>
-      <c r="K418" s="15"/>
+      <c r="I418" s="21"/>
+      <c r="K418" s="22"/>
     </row>
     <row r="419">
-      <c r="I419" s="14"/>
-      <c r="K419" s="15"/>
+      <c r="I419" s="21"/>
+      <c r="K419" s="22"/>
     </row>
     <row r="420">
-      <c r="I420" s="14"/>
-      <c r="K420" s="15"/>
+      <c r="I420" s="21"/>
+      <c r="K420" s="22"/>
     </row>
     <row r="421">
-      <c r="I421" s="14"/>
-      <c r="K421" s="15"/>
+      <c r="I421" s="21"/>
+      <c r="K421" s="22"/>
     </row>
     <row r="422">
-      <c r="I422" s="14"/>
-      <c r="K422" s="15"/>
+      <c r="I422" s="21"/>
+      <c r="K422" s="22"/>
     </row>
     <row r="423">
-      <c r="I423" s="14"/>
-      <c r="K423" s="15"/>
+      <c r="I423" s="21"/>
+      <c r="K423" s="22"/>
     </row>
     <row r="424">
-      <c r="I424" s="14"/>
-      <c r="K424" s="15"/>
+      <c r="I424" s="21"/>
+      <c r="K424" s="22"/>
     </row>
     <row r="425">
-      <c r="I425" s="14"/>
-      <c r="K425" s="15"/>
+      <c r="I425" s="21"/>
+      <c r="K425" s="22"/>
     </row>
     <row r="426">
-      <c r="I426" s="14"/>
-      <c r="K426" s="15"/>
+      <c r="I426" s="21"/>
+      <c r="K426" s="22"/>
     </row>
     <row r="427">
-      <c r="I427" s="14"/>
-      <c r="K427" s="15"/>
+      <c r="I427" s="21"/>
+      <c r="K427" s="22"/>
     </row>
     <row r="428">
-      <c r="I428" s="14"/>
-      <c r="K428" s="15"/>
+      <c r="I428" s="21"/>
+      <c r="K428" s="22"/>
     </row>
     <row r="429">
-      <c r="I429" s="14"/>
-      <c r="K429" s="15"/>
+      <c r="I429" s="21"/>
+      <c r="K429" s="22"/>
     </row>
     <row r="430">
-      <c r="I430" s="14"/>
-      <c r="K430" s="15"/>
+      <c r="I430" s="21"/>
+      <c r="K430" s="22"/>
     </row>
     <row r="431">
-      <c r="I431" s="14"/>
-      <c r="K431" s="15"/>
+      <c r="I431" s="21"/>
+      <c r="K431" s="22"/>
     </row>
     <row r="432">
-      <c r="I432" s="14"/>
-      <c r="K432" s="15"/>
+      <c r="I432" s="21"/>
+      <c r="K432" s="22"/>
     </row>
     <row r="433">
-      <c r="I433" s="14"/>
-      <c r="K433" s="15"/>
+      <c r="I433" s="21"/>
+      <c r="K433" s="22"/>
     </row>
     <row r="434">
-      <c r="I434" s="14"/>
-      <c r="K434" s="15"/>
+      <c r="I434" s="21"/>
+      <c r="K434" s="22"/>
     </row>
     <row r="435">
-      <c r="I435" s="14"/>
-      <c r="K435" s="15"/>
+      <c r="I435" s="21"/>
+      <c r="K435" s="22"/>
     </row>
     <row r="436">
-      <c r="I436" s="14"/>
-      <c r="K436" s="15"/>
+      <c r="I436" s="21"/>
+      <c r="K436" s="22"/>
     </row>
     <row r="437">
-      <c r="I437" s="14"/>
-      <c r="K437" s="15"/>
+      <c r="I437" s="21"/>
+      <c r="K437" s="22"/>
     </row>
     <row r="438">
-      <c r="I438" s="14"/>
-      <c r="K438" s="15"/>
+      <c r="I438" s="21"/>
+      <c r="K438" s="22"/>
     </row>
     <row r="439">
-      <c r="I439" s="14"/>
-      <c r="K439" s="15"/>
+      <c r="I439" s="21"/>
+      <c r="K439" s="22"/>
     </row>
     <row r="440">
-      <c r="I440" s="14"/>
-      <c r="K440" s="15"/>
+      <c r="I440" s="21"/>
+      <c r="K440" s="22"/>
     </row>
     <row r="441">
-      <c r="I441" s="14"/>
-      <c r="K441" s="15"/>
+      <c r="I441" s="21"/>
+      <c r="K441" s="22"/>
     </row>
     <row r="442">
-      <c r="I442" s="14"/>
-      <c r="K442" s="15"/>
+      <c r="I442" s="21"/>
+      <c r="K442" s="22"/>
     </row>
     <row r="443">
-      <c r="I443" s="14"/>
-      <c r="K443" s="15"/>
+      <c r="I443" s="21"/>
+      <c r="K443" s="22"/>
     </row>
     <row r="444">
-      <c r="I444" s="14"/>
-      <c r="K444" s="15"/>
+      <c r="I444" s="21"/>
+      <c r="K444" s="22"/>
     </row>
     <row r="445">
-      <c r="I445" s="14"/>
-      <c r="K445" s="15"/>
+      <c r="I445" s="21"/>
+      <c r="K445" s="22"/>
     </row>
     <row r="446">
-      <c r="I446" s="14"/>
-      <c r="K446" s="15"/>
+      <c r="I446" s="21"/>
+      <c r="K446" s="22"/>
     </row>
     <row r="447">
-      <c r="I447" s="14"/>
-      <c r="K447" s="15"/>
+      <c r="I447" s="21"/>
+      <c r="K447" s="22"/>
     </row>
     <row r="448">
-      <c r="I448" s="14"/>
-      <c r="K448" s="15"/>
+      <c r="I448" s="21"/>
+      <c r="K448" s="22"/>
     </row>
     <row r="449">
-      <c r="I449" s="14"/>
-      <c r="K449" s="15"/>
+      <c r="I449" s="21"/>
+      <c r="K449" s="22"/>
     </row>
     <row r="450">
-      <c r="I450" s="14"/>
-      <c r="K450" s="15"/>
+      <c r="I450" s="21"/>
+      <c r="K450" s="22"/>
     </row>
     <row r="451">
-      <c r="I451" s="14"/>
-      <c r="K451" s="15"/>
+      <c r="I451" s="21"/>
+      <c r="K451" s="22"/>
     </row>
     <row r="452">
-      <c r="I452" s="14"/>
-      <c r="K452" s="15"/>
+      <c r="I452" s="21"/>
+      <c r="K452" s="22"/>
     </row>
     <row r="453">
-      <c r="I453" s="14"/>
-      <c r="K453" s="15"/>
+      <c r="I453" s="21"/>
+      <c r="K453" s="22"/>
     </row>
     <row r="454">
-      <c r="I454" s="14"/>
-      <c r="K454" s="15"/>
+      <c r="I454" s="21"/>
+      <c r="K454" s="22"/>
     </row>
     <row r="455">
-      <c r="I455" s="14"/>
-      <c r="K455" s="15"/>
+      <c r="I455" s="21"/>
+      <c r="K455" s="22"/>
     </row>
     <row r="456">
-      <c r="I456" s="14"/>
-      <c r="K456" s="15"/>
+      <c r="I456" s="21"/>
+      <c r="K456" s="22"/>
     </row>
     <row r="457">
-      <c r="I457" s="14"/>
-      <c r="K457" s="15"/>
+      <c r="I457" s="21"/>
+      <c r="K457" s="22"/>
     </row>
     <row r="458">
-      <c r="I458" s="14"/>
-      <c r="K458" s="15"/>
+      <c r="I458" s="21"/>
+      <c r="K458" s="22"/>
     </row>
     <row r="459">
-      <c r="I459" s="14"/>
-      <c r="K459" s="15"/>
+      <c r="I459" s="21"/>
+      <c r="K459" s="22"/>
     </row>
     <row r="460">
-      <c r="I460" s="14"/>
-      <c r="K460" s="15"/>
+      <c r="I460" s="21"/>
+      <c r="K460" s="22"/>
     </row>
     <row r="461">
-      <c r="I461" s="14"/>
-      <c r="K461" s="15"/>
+      <c r="I461" s="21"/>
+      <c r="K461" s="22"/>
     </row>
     <row r="462">
-      <c r="I462" s="14"/>
-      <c r="K462" s="15"/>
+      <c r="I462" s="21"/>
+      <c r="K462" s="22"/>
     </row>
     <row r="463">
-      <c r="I463" s="14"/>
-      <c r="K463" s="15"/>
+      <c r="I463" s="21"/>
+      <c r="K463" s="22"/>
     </row>
     <row r="464">
-      <c r="I464" s="14"/>
-      <c r="K464" s="15"/>
+      <c r="I464" s="21"/>
+      <c r="K464" s="22"/>
     </row>
     <row r="465">
-      <c r="I465" s="14"/>
-      <c r="K465" s="15"/>
+      <c r="I465" s="21"/>
+      <c r="K465" s="22"/>
     </row>
     <row r="466">
-      <c r="I466" s="14"/>
-      <c r="K466" s="15"/>
+      <c r="I466" s="21"/>
+      <c r="K466" s="22"/>
     </row>
     <row r="467">
-      <c r="I467" s="14"/>
-      <c r="K467" s="15"/>
+      <c r="I467" s="21"/>
+      <c r="K467" s="22"/>
     </row>
     <row r="468">
-      <c r="I468" s="14"/>
-      <c r="K468" s="15"/>
+      <c r="I468" s="21"/>
+      <c r="K468" s="22"/>
     </row>
     <row r="469">
-      <c r="I469" s="14"/>
-      <c r="K469" s="15"/>
+      <c r="I469" s="21"/>
+      <c r="K469" s="22"/>
     </row>
     <row r="470">
-      <c r="I470" s="14"/>
-      <c r="K470" s="15"/>
+      <c r="I470" s="21"/>
+      <c r="K470" s="22"/>
     </row>
     <row r="471">
-      <c r="I471" s="14"/>
-      <c r="K471" s="15"/>
+      <c r="I471" s="21"/>
+      <c r="K471" s="22"/>
     </row>
     <row r="472">
-      <c r="I472" s="14"/>
-      <c r="K472" s="15"/>
+      <c r="I472" s="21"/>
+      <c r="K472" s="22"/>
     </row>
     <row r="473">
-      <c r="I473" s="14"/>
-      <c r="K473" s="15"/>
+      <c r="I473" s="21"/>
+      <c r="K473" s="22"/>
     </row>
     <row r="474">
-      <c r="I474" s="14"/>
-      <c r="K474" s="15"/>
+      <c r="I474" s="21"/>
+      <c r="K474" s="22"/>
     </row>
     <row r="475">
-      <c r="I475" s="14"/>
-      <c r="K475" s="15"/>
+      <c r="I475" s="21"/>
+      <c r="K475" s="22"/>
     </row>
     <row r="476">
-      <c r="I476" s="14"/>
-      <c r="K476" s="15"/>
+      <c r="I476" s="21"/>
+      <c r="K476" s="22"/>
     </row>
     <row r="477">
-      <c r="I477" s="14"/>
-      <c r="K477" s="15"/>
+      <c r="I477" s="21"/>
+      <c r="K477" s="22"/>
     </row>
     <row r="478">
-      <c r="I478" s="14"/>
-      <c r="K478" s="15"/>
+      <c r="I478" s="21"/>
+      <c r="K478" s="22"/>
     </row>
     <row r="479">
-      <c r="I479" s="14"/>
-      <c r="K479" s="15"/>
+      <c r="I479" s="21"/>
+      <c r="K479" s="22"/>
     </row>
     <row r="480">
-      <c r="I480" s="14"/>
-      <c r="K480" s="15"/>
+      <c r="I480" s="21"/>
+      <c r="K480" s="22"/>
     </row>
     <row r="481">
-      <c r="I481" s="14"/>
-      <c r="K481" s="15"/>
+      <c r="I481" s="21"/>
+      <c r="K481" s="22"/>
     </row>
     <row r="482">
-      <c r="I482" s="14"/>
-      <c r="K482" s="15"/>
+      <c r="I482" s="21"/>
+      <c r="K482" s="22"/>
     </row>
     <row r="483">
-      <c r="I483" s="14"/>
-      <c r="K483" s="15"/>
+      <c r="I483" s="21"/>
+      <c r="K483" s="22"/>
     </row>
     <row r="484">
-      <c r="I484" s="14"/>
-      <c r="K484" s="15"/>
+      <c r="I484" s="21"/>
+      <c r="K484" s="22"/>
     </row>
     <row r="485">
-      <c r="I485" s="14"/>
-      <c r="K485" s="15"/>
+      <c r="I485" s="21"/>
+      <c r="K485" s="22"/>
     </row>
     <row r="486">
-      <c r="I486" s="14"/>
-      <c r="K486" s="15"/>
+      <c r="I486" s="21"/>
+      <c r="K486" s="22"/>
     </row>
     <row r="487">
-      <c r="I487" s="14"/>
-      <c r="K487" s="15"/>
+      <c r="I487" s="21"/>
+      <c r="K487" s="22"/>
     </row>
     <row r="488">
-      <c r="I488" s="14"/>
-      <c r="K488" s="15"/>
+      <c r="I488" s="21"/>
+      <c r="K488" s="22"/>
     </row>
     <row r="489">
-      <c r="I489" s="14"/>
-      <c r="K489" s="15"/>
+      <c r="I489" s="21"/>
+      <c r="K489" s="22"/>
     </row>
     <row r="490">
-      <c r="I490" s="14"/>
-      <c r="K490" s="15"/>
+      <c r="I490" s="21"/>
+      <c r="K490" s="22"/>
     </row>
     <row r="491">
-      <c r="I491" s="14"/>
-      <c r="K491" s="15"/>
+      <c r="I491" s="21"/>
+      <c r="K491" s="22"/>
     </row>
     <row r="492">
-      <c r="I492" s="14"/>
-      <c r="K492" s="15"/>
+      <c r="I492" s="21"/>
+      <c r="K492" s="22"/>
     </row>
     <row r="493">
-      <c r="I493" s="14"/>
-      <c r="K493" s="15"/>
+      <c r="I493" s="21"/>
+      <c r="K493" s="22"/>
     </row>
     <row r="494">
-      <c r="I494" s="14"/>
-      <c r="K494" s="15"/>
+      <c r="I494" s="21"/>
+      <c r="K494" s="22"/>
     </row>
     <row r="495">
-      <c r="I495" s="14"/>
-      <c r="K495" s="15"/>
+      <c r="I495" s="21"/>
+      <c r="K495" s="22"/>
     </row>
     <row r="496">
-      <c r="I496" s="14"/>
-      <c r="K496" s="15"/>
+      <c r="I496" s="21"/>
+      <c r="K496" s="22"/>
     </row>
     <row r="497">
-      <c r="I497" s="14"/>
-      <c r="K497" s="15"/>
+      <c r="I497" s="21"/>
+      <c r="K497" s="22"/>
     </row>
     <row r="498">
-      <c r="I498" s="14"/>
-      <c r="K498" s="15"/>
+      <c r="I498" s="21"/>
+      <c r="K498" s="22"/>
     </row>
     <row r="499">
-      <c r="I499" s="14"/>
-      <c r="K499" s="15"/>
+      <c r="I499" s="21"/>
+      <c r="K499" s="22"/>
     </row>
     <row r="500">
-      <c r="I500" s="14"/>
-      <c r="K500" s="15"/>
+      <c r="I500" s="21"/>
+      <c r="K500" s="22"/>
     </row>
     <row r="501">
-      <c r="I501" s="14"/>
-      <c r="K501" s="15"/>
+      <c r="I501" s="21"/>
+      <c r="K501" s="22"/>
     </row>
     <row r="502">
-      <c r="I502" s="14"/>
-      <c r="K502" s="15"/>
+      <c r="I502" s="21"/>
+      <c r="K502" s="22"/>
     </row>
     <row r="503">
-      <c r="I503" s="14"/>
-      <c r="K503" s="15"/>
+      <c r="I503" s="21"/>
+      <c r="K503" s="22"/>
     </row>
     <row r="504">
-      <c r="I504" s="14"/>
-      <c r="K504" s="15"/>
+      <c r="I504" s="21"/>
+      <c r="K504" s="22"/>
     </row>
     <row r="505">
-      <c r="I505" s="14"/>
-      <c r="K505" s="15"/>
+      <c r="I505" s="21"/>
+      <c r="K505" s="22"/>
     </row>
     <row r="506">
-      <c r="I506" s="14"/>
-      <c r="K506" s="15"/>
+      <c r="I506" s="21"/>
+      <c r="K506" s="22"/>
     </row>
     <row r="507">
-      <c r="I507" s="14"/>
-      <c r="K507" s="15"/>
+      <c r="I507" s="21"/>
+      <c r="K507" s="22"/>
     </row>
     <row r="508">
-      <c r="I508" s="14"/>
-      <c r="K508" s="15"/>
+      <c r="I508" s="21"/>
+      <c r="K508" s="22"/>
     </row>
     <row r="509">
-      <c r="I509" s="14"/>
-      <c r="K509" s="15"/>
+      <c r="I509" s="21"/>
+      <c r="K509" s="22"/>
     </row>
     <row r="510">
-      <c r="I510" s="14"/>
-      <c r="K510" s="15"/>
+      <c r="I510" s="21"/>
+      <c r="K510" s="22"/>
     </row>
     <row r="511">
-      <c r="I511" s="14"/>
-      <c r="K511" s="15"/>
+      <c r="I511" s="21"/>
+      <c r="K511" s="22"/>
     </row>
     <row r="512">
-      <c r="I512" s="14"/>
-      <c r="K512" s="15"/>
+      <c r="I512" s="21"/>
+      <c r="K512" s="22"/>
     </row>
     <row r="513">
-      <c r="I513" s="14"/>
-      <c r="K513" s="15"/>
+      <c r="I513" s="21"/>
+      <c r="K513" s="22"/>
     </row>
     <row r="514">
-      <c r="I514" s="14"/>
-      <c r="K514" s="15"/>
+      <c r="I514" s="21"/>
+      <c r="K514" s="22"/>
     </row>
     <row r="515">
-      <c r="I515" s="14"/>
-      <c r="K515" s="15"/>
+      <c r="I515" s="21"/>
+      <c r="K515" s="22"/>
     </row>
     <row r="516">
-      <c r="I516" s="14"/>
-      <c r="K516" s="15"/>
+      <c r="I516" s="21"/>
+      <c r="K516" s="22"/>
     </row>
     <row r="517">
-      <c r="I517" s="14"/>
-      <c r="K517" s="15"/>
+      <c r="I517" s="21"/>
+      <c r="K517" s="22"/>
     </row>
     <row r="518">
-      <c r="I518" s="14"/>
-      <c r="K518" s="15"/>
+      <c r="I518" s="21"/>
+      <c r="K518" s="22"/>
     </row>
     <row r="519">
-      <c r="I519" s="14"/>
-      <c r="K519" s="15"/>
+      <c r="I519" s="21"/>
+      <c r="K519" s="22"/>
     </row>
     <row r="520">
-      <c r="I520" s="14"/>
-      <c r="K520" s="15"/>
+      <c r="I520" s="21"/>
+      <c r="K520" s="22"/>
     </row>
     <row r="521">
-      <c r="I521" s="14"/>
-      <c r="K521" s="15"/>
+      <c r="I521" s="21"/>
+      <c r="K521" s="22"/>
     </row>
     <row r="522">
-      <c r="I522" s="14"/>
-      <c r="K522" s="15"/>
+      <c r="I522" s="21"/>
+      <c r="K522" s="22"/>
     </row>
     <row r="523">
-      <c r="I523" s="14"/>
-      <c r="K523" s="15"/>
+      <c r="I523" s="21"/>
+      <c r="K523" s="22"/>
     </row>
     <row r="524">
-      <c r="I524" s="14"/>
-      <c r="K524" s="15"/>
+      <c r="I524" s="21"/>
+      <c r="K524" s="22"/>
     </row>
     <row r="525">
-      <c r="I525" s="14"/>
-      <c r="K525" s="15"/>
+      <c r="I525" s="21"/>
+      <c r="K525" s="22"/>
     </row>
     <row r="526">
-      <c r="I526" s="14"/>
-      <c r="K526" s="15"/>
+      <c r="I526" s="21"/>
+      <c r="K526" s="22"/>
     </row>
     <row r="527">
-      <c r="I527" s="14"/>
-      <c r="K527" s="15"/>
+      <c r="I527" s="21"/>
+      <c r="K527" s="22"/>
     </row>
     <row r="528">
-      <c r="I528" s="14"/>
-      <c r="K528" s="15"/>
+      <c r="I528" s="21"/>
+      <c r="K528" s="22"/>
     </row>
     <row r="529">
-      <c r="I529" s="14"/>
-      <c r="K529" s="15"/>
+      <c r="I529" s="21"/>
+      <c r="K529" s="22"/>
     </row>
     <row r="530">
-      <c r="I530" s="14"/>
-      <c r="K530" s="15"/>
+      <c r="I530" s="21"/>
+      <c r="K530" s="22"/>
     </row>
     <row r="531">
-      <c r="I531" s="14"/>
-      <c r="K531" s="15"/>
+      <c r="I531" s="21"/>
+      <c r="K531" s="22"/>
     </row>
     <row r="532">
-      <c r="I532" s="14"/>
-      <c r="K532" s="15"/>
+      <c r="I532" s="21"/>
+      <c r="K532" s="22"/>
     </row>
     <row r="533">
-      <c r="I533" s="14"/>
-      <c r="K533" s="15"/>
+      <c r="I533" s="21"/>
+      <c r="K533" s="22"/>
     </row>
     <row r="534">
-      <c r="I534" s="14"/>
-      <c r="K534" s="15"/>
+      <c r="I534" s="21"/>
+      <c r="K534" s="22"/>
     </row>
     <row r="535">
-      <c r="I535" s="14"/>
-      <c r="K535" s="15"/>
+      <c r="I535" s="21"/>
+      <c r="K535" s="22"/>
     </row>
     <row r="536">
-      <c r="I536" s="14"/>
-      <c r="K536" s="15"/>
+      <c r="I536" s="21"/>
+      <c r="K536" s="22"/>
     </row>
     <row r="537">
-      <c r="I537" s="14"/>
-      <c r="K537" s="15"/>
+      <c r="I537" s="21"/>
+      <c r="K537" s="22"/>
     </row>
     <row r="538">
-      <c r="I538" s="14"/>
-      <c r="K538" s="15"/>
+      <c r="I538" s="21"/>
+      <c r="K538" s="22"/>
     </row>
     <row r="539">
-      <c r="I539" s="14"/>
-      <c r="K539" s="15"/>
+      <c r="I539" s="21"/>
+      <c r="K539" s="22"/>
     </row>
     <row r="540">
-      <c r="I540" s="14"/>
-      <c r="K540" s="15"/>
+      <c r="I540" s="21"/>
+      <c r="K540" s="22"/>
     </row>
     <row r="541">
-      <c r="I541" s="14"/>
-      <c r="K541" s="15"/>
+      <c r="I541" s="21"/>
+      <c r="K541" s="22"/>
     </row>
     <row r="542">
-      <c r="I542" s="14"/>
-      <c r="K542" s="15"/>
+      <c r="I542" s="21"/>
+      <c r="K542" s="22"/>
     </row>
     <row r="543">
-      <c r="I543" s="14"/>
-      <c r="K543" s="15"/>
+      <c r="I543" s="21"/>
+      <c r="K543" s="22"/>
     </row>
     <row r="544">
-      <c r="I544" s="14"/>
-      <c r="K544" s="15"/>
+      <c r="I544" s="21"/>
+      <c r="K544" s="22"/>
     </row>
     <row r="545">
-      <c r="I545" s="14"/>
-      <c r="K545" s="15"/>
+      <c r="I545" s="21"/>
+      <c r="K545" s="22"/>
     </row>
     <row r="546">
-      <c r="I546" s="14"/>
-      <c r="K546" s="15"/>
+      <c r="I546" s="21"/>
+      <c r="K546" s="22"/>
     </row>
     <row r="547">
-      <c r="I547" s="14"/>
-      <c r="K547" s="15"/>
+      <c r="I547" s="21"/>
+      <c r="K547" s="22"/>
     </row>
     <row r="548">
-      <c r="I548" s="14"/>
-      <c r="K548" s="15"/>
+      <c r="I548" s="21"/>
+      <c r="K548" s="22"/>
     </row>
     <row r="549">
-      <c r="I549" s="14"/>
-      <c r="K549" s="15"/>
+      <c r="I549" s="21"/>
+      <c r="K549" s="22"/>
     </row>
     <row r="550">
-      <c r="I550" s="14"/>
-      <c r="K550" s="15"/>
+      <c r="I550" s="21"/>
+      <c r="K550" s="22"/>
     </row>
     <row r="551">
-      <c r="I551" s="14"/>
-      <c r="K551" s="15"/>
+      <c r="I551" s="21"/>
+      <c r="K551" s="22"/>
     </row>
     <row r="552">
-      <c r="I552" s="14"/>
-      <c r="K552" s="15"/>
+      <c r="I552" s="21"/>
+      <c r="K552" s="22"/>
     </row>
     <row r="553">
-      <c r="I553" s="14"/>
-      <c r="K553" s="15"/>
+      <c r="I553" s="21"/>
+      <c r="K553" s="22"/>
     </row>
     <row r="554">
-      <c r="I554" s="14"/>
-      <c r="K554" s="15"/>
+      <c r="I554" s="21"/>
+      <c r="K554" s="22"/>
     </row>
     <row r="555">
-      <c r="I555" s="14"/>
-      <c r="K555" s="15"/>
+      <c r="I555" s="21"/>
+      <c r="K555" s="22"/>
     </row>
     <row r="556">
-      <c r="I556" s="14"/>
-      <c r="K556" s="15"/>
+      <c r="I556" s="21"/>
+      <c r="K556" s="22"/>
     </row>
     <row r="557">
-      <c r="I557" s="14"/>
-      <c r="K557" s="15"/>
+      <c r="I557" s="21"/>
+      <c r="K557" s="22"/>
     </row>
     <row r="558">
-      <c r="I558" s="14"/>
-      <c r="K558" s="15"/>
+      <c r="I558" s="21"/>
+      <c r="K558" s="22"/>
     </row>
     <row r="559">
-      <c r="I559" s="14"/>
-      <c r="K559" s="15"/>
+      <c r="I559" s="21"/>
+      <c r="K559" s="22"/>
     </row>
     <row r="560">
-      <c r="I560" s="14"/>
-      <c r="K560" s="15"/>
+      <c r="I560" s="21"/>
+      <c r="K560" s="22"/>
     </row>
     <row r="561">
-      <c r="I561" s="14"/>
-      <c r="K561" s="15"/>
+      <c r="I561" s="21"/>
+      <c r="K561" s="22"/>
     </row>
     <row r="562">
-      <c r="I562" s="14"/>
-      <c r="K562" s="15"/>
+      <c r="I562" s="21"/>
+      <c r="K562" s="22"/>
     </row>
     <row r="563">
-      <c r="I563" s="14"/>
-      <c r="K563" s="15"/>
+      <c r="I563" s="21"/>
+      <c r="K563" s="22"/>
     </row>
     <row r="564">
-      <c r="I564" s="14"/>
-      <c r="K564" s="15"/>
+      <c r="I564" s="21"/>
+      <c r="K564" s="22"/>
     </row>
     <row r="565">
-      <c r="I565" s="14"/>
-      <c r="K565" s="15"/>
+      <c r="I565" s="21"/>
+      <c r="K565" s="22"/>
     </row>
     <row r="566">
-      <c r="I566" s="14"/>
-      <c r="K566" s="15"/>
+      <c r="I566" s="21"/>
+      <c r="K566" s="22"/>
     </row>
     <row r="567">
-      <c r="I567" s="14"/>
-      <c r="K567" s="15"/>
+      <c r="I567" s="21"/>
+      <c r="K567" s="22"/>
     </row>
     <row r="568">
-      <c r="I568" s="14"/>
-      <c r="K568" s="15"/>
+      <c r="I568" s="21"/>
+      <c r="K568" s="22"/>
     </row>
     <row r="569">
-      <c r="I569" s="14"/>
-      <c r="K569" s="15"/>
+      <c r="I569" s="21"/>
+      <c r="K569" s="22"/>
     </row>
     <row r="570">
-      <c r="I570" s="14"/>
-      <c r="K570" s="15"/>
+      <c r="I570" s="21"/>
+      <c r="K570" s="22"/>
     </row>
     <row r="571">
-      <c r="I571" s="14"/>
-      <c r="K571" s="15"/>
+      <c r="I571" s="21"/>
+      <c r="K571" s="22"/>
     </row>
     <row r="572">
-      <c r="I572" s="14"/>
-      <c r="K572" s="15"/>
+      <c r="I572" s="21"/>
+      <c r="K572" s="22"/>
     </row>
     <row r="573">
-      <c r="I573" s="14"/>
-      <c r="K573" s="15"/>
+      <c r="I573" s="21"/>
+      <c r="K573" s="22"/>
     </row>
     <row r="574">
-      <c r="I574" s="14"/>
-      <c r="K574" s="15"/>
+      <c r="I574" s="21"/>
+      <c r="K574" s="22"/>
     </row>
     <row r="575">
-      <c r="I575" s="14"/>
-      <c r="K575" s="15"/>
+      <c r="I575" s="21"/>
+      <c r="K575" s="22"/>
     </row>
     <row r="576">
-      <c r="I576" s="14"/>
-      <c r="K576" s="15"/>
+      <c r="I576" s="21"/>
+      <c r="K576" s="22"/>
     </row>
     <row r="577">
-      <c r="I577" s="14"/>
-      <c r="K577" s="15"/>
+      <c r="I577" s="21"/>
+      <c r="K577" s="22"/>
     </row>
     <row r="578">
-      <c r="I578" s="14"/>
-      <c r="K578" s="15"/>
+      <c r="I578" s="21"/>
+      <c r="K578" s="22"/>
     </row>
     <row r="579">
-      <c r="I579" s="14"/>
-      <c r="K579" s="15"/>
+      <c r="I579" s="21"/>
+      <c r="K579" s="22"/>
     </row>
     <row r="580">
-      <c r="I580" s="14"/>
-      <c r="K580" s="15"/>
+      <c r="I580" s="21"/>
+      <c r="K580" s="22"/>
     </row>
     <row r="581">
-      <c r="I581" s="14"/>
-      <c r="K581" s="15"/>
+      <c r="I581" s="21"/>
+      <c r="K581" s="22"/>
     </row>
     <row r="582">
-      <c r="I582" s="14"/>
-      <c r="K582" s="15"/>
+      <c r="I582" s="21"/>
+      <c r="K582" s="22"/>
     </row>
     <row r="583">
-      <c r="I583" s="14"/>
-      <c r="K583" s="15"/>
+      <c r="I583" s="21"/>
+      <c r="K583" s="22"/>
     </row>
     <row r="584">
-      <c r="I584" s="14"/>
-      <c r="K584" s="15"/>
+      <c r="I584" s="21"/>
+      <c r="K584" s="22"/>
     </row>
     <row r="585">
-      <c r="I585" s="14"/>
-      <c r="K585" s="15"/>
+      <c r="I585" s="21"/>
+      <c r="K585" s="22"/>
     </row>
     <row r="586">
-      <c r="I586" s="14"/>
-      <c r="K586" s="15"/>
+      <c r="I586" s="21"/>
+      <c r="K586" s="22"/>
     </row>
     <row r="587">
-      <c r="I587" s="14"/>
-      <c r="K587" s="15"/>
+      <c r="I587" s="21"/>
+      <c r="K587" s="22"/>
     </row>
     <row r="588">
-      <c r="I588" s="14"/>
-      <c r="K588" s="15"/>
+      <c r="I588" s="21"/>
+      <c r="K588" s="22"/>
     </row>
     <row r="589">
-      <c r="I589" s="14"/>
-      <c r="K589" s="15"/>
+      <c r="I589" s="21"/>
+      <c r="K589" s="22"/>
     </row>
     <row r="590">
-      <c r="I590" s="14"/>
-      <c r="K590" s="15"/>
+      <c r="I590" s="21"/>
+      <c r="K590" s="22"/>
     </row>
     <row r="591">
-      <c r="I591" s="14"/>
-      <c r="K591" s="15"/>
+      <c r="I591" s="21"/>
+      <c r="K591" s="22"/>
     </row>
     <row r="592">
-      <c r="I592" s="14"/>
-      <c r="K592" s="15"/>
+      <c r="I592" s="21"/>
+      <c r="K592" s="22"/>
     </row>
     <row r="593">
-      <c r="I593" s="14"/>
-      <c r="K593" s="15"/>
+      <c r="I593" s="21"/>
+      <c r="K593" s="22"/>
     </row>
     <row r="594">
-      <c r="I594" s="14"/>
-      <c r="K594" s="15"/>
+      <c r="I594" s="21"/>
+      <c r="K594" s="22"/>
     </row>
     <row r="595">
-      <c r="I595" s="14"/>
-      <c r="K595" s="15"/>
+      <c r="I595" s="21"/>
+      <c r="K595" s="22"/>
     </row>
     <row r="596">
-      <c r="I596" s="14"/>
-      <c r="K596" s="15"/>
+      <c r="I596" s="21"/>
+      <c r="K596" s="22"/>
     </row>
     <row r="597">
-      <c r="I597" s="14"/>
-      <c r="K597" s="15"/>
+      <c r="I597" s="21"/>
+      <c r="K597" s="22"/>
     </row>
     <row r="598">
-      <c r="I598" s="14"/>
-      <c r="K598" s="15"/>
+      <c r="I598" s="21"/>
+      <c r="K598" s="22"/>
     </row>
     <row r="599">
-      <c r="I599" s="14"/>
-      <c r="K599" s="15"/>
+      <c r="I599" s="21"/>
+      <c r="K599" s="22"/>
     </row>
     <row r="600">
-      <c r="I600" s="14"/>
-      <c r="K600" s="15"/>
+      <c r="I600" s="21"/>
+      <c r="K600" s="22"/>
     </row>
     <row r="601">
-      <c r="I601" s="14"/>
-      <c r="K601" s="15"/>
+      <c r="I601" s="21"/>
+      <c r="K601" s="22"/>
     </row>
     <row r="602">
-      <c r="I602" s="14"/>
-      <c r="K602" s="15"/>
+      <c r="I602" s="21"/>
+      <c r="K602" s="22"/>
     </row>
     <row r="603">
-      <c r="I603" s="14"/>
-      <c r="K603" s="15"/>
+      <c r="I603" s="21"/>
+      <c r="K603" s="22"/>
     </row>
     <row r="604">
-      <c r="I604" s="14"/>
-      <c r="K604" s="15"/>
+      <c r="I604" s="21"/>
+      <c r="K604" s="22"/>
     </row>
     <row r="605">
-      <c r="I605" s="14"/>
-      <c r="K605" s="15"/>
+      <c r="I605" s="21"/>
+      <c r="K605" s="22"/>
     </row>
     <row r="606">
-      <c r="I606" s="14"/>
-      <c r="K606" s="15"/>
+      <c r="I606" s="21"/>
+      <c r="K606" s="22"/>
     </row>
     <row r="607">
-      <c r="I607" s="14"/>
-      <c r="K607" s="15"/>
+      <c r="I607" s="21"/>
+      <c r="K607" s="22"/>
     </row>
     <row r="608">
-      <c r="I608" s="14"/>
-      <c r="K608" s="15"/>
+      <c r="I608" s="21"/>
+      <c r="K608" s="22"/>
     </row>
     <row r="609">
-      <c r="I609" s="14"/>
-      <c r="K609" s="15"/>
+      <c r="I609" s="21"/>
+      <c r="K609" s="22"/>
     </row>
     <row r="610">
-      <c r="I610" s="14"/>
-      <c r="K610" s="15"/>
+      <c r="I610" s="21"/>
+      <c r="K610" s="22"/>
     </row>
     <row r="611">
-      <c r="I611" s="14"/>
-      <c r="K611" s="15"/>
+      <c r="I611" s="21"/>
+      <c r="K611" s="22"/>
     </row>
     <row r="612">
-      <c r="I612" s="14"/>
-      <c r="K612" s="15"/>
+      <c r="I612" s="21"/>
+      <c r="K612" s="22"/>
     </row>
     <row r="613">
-      <c r="I613" s="14"/>
-      <c r="K613" s="15"/>
+      <c r="I613" s="21"/>
+      <c r="K613" s="22"/>
     </row>
     <row r="614">
-      <c r="I614" s="14"/>
-      <c r="K614" s="15"/>
+      <c r="I614" s="21"/>
+      <c r="K614" s="22"/>
     </row>
     <row r="615">
-      <c r="I615" s="14"/>
-      <c r="K615" s="15"/>
+      <c r="I615" s="21"/>
+      <c r="K615" s="22"/>
     </row>
     <row r="616">
-      <c r="I616" s="14"/>
-      <c r="K616" s="15"/>
+      <c r="I616" s="21"/>
+      <c r="K616" s="22"/>
     </row>
     <row r="617">
-      <c r="I617" s="14"/>
-      <c r="K617" s="15"/>
+      <c r="I617" s="21"/>
+      <c r="K617" s="22"/>
     </row>
     <row r="618">
-      <c r="I618" s="14"/>
-      <c r="K618" s="15"/>
+      <c r="I618" s="21"/>
+      <c r="K618" s="22"/>
     </row>
     <row r="619">
-      <c r="I619" s="14"/>
-      <c r="K619" s="15"/>
+      <c r="I619" s="21"/>
+      <c r="K619" s="22"/>
     </row>
     <row r="620">
-      <c r="I620" s="14"/>
-      <c r="K620" s="15"/>
+      <c r="I620" s="21"/>
+      <c r="K620" s="22"/>
     </row>
     <row r="621">
-      <c r="I621" s="14"/>
-      <c r="K621" s="15"/>
+      <c r="I621" s="21"/>
+      <c r="K621" s="22"/>
     </row>
     <row r="622">
-      <c r="I622" s="14"/>
-      <c r="K622" s="15"/>
+      <c r="I622" s="21"/>
+      <c r="K622" s="22"/>
     </row>
     <row r="623">
-      <c r="I623" s="14"/>
-      <c r="K623" s="15"/>
+      <c r="I623" s="21"/>
+      <c r="K623" s="22"/>
     </row>
     <row r="624">
-      <c r="I624" s="14"/>
-      <c r="K624" s="15"/>
+      <c r="I624" s="21"/>
+      <c r="K624" s="22"/>
     </row>
     <row r="625">
-      <c r="I625" s="14"/>
-      <c r="K625" s="15"/>
+      <c r="I625" s="21"/>
+      <c r="K625" s="22"/>
     </row>
     <row r="626">
-      <c r="I626" s="14"/>
-      <c r="K626" s="15"/>
+      <c r="I626" s="21"/>
+      <c r="K626" s="22"/>
     </row>
     <row r="627">
-      <c r="I627" s="14"/>
-      <c r="K627" s="15"/>
+      <c r="I627" s="21"/>
+      <c r="K627" s="22"/>
     </row>
     <row r="628">
-      <c r="I628" s="14"/>
-      <c r="K628" s="15"/>
+      <c r="I628" s="21"/>
+      <c r="K628" s="22"/>
     </row>
     <row r="629">
-      <c r="I629" s="14"/>
-      <c r="K629" s="15"/>
+      <c r="I629" s="21"/>
+      <c r="K629" s="22"/>
     </row>
     <row r="630">
-      <c r="I630" s="14"/>
-      <c r="K630" s="15"/>
+      <c r="I630" s="21"/>
+      <c r="K630" s="22"/>
     </row>
     <row r="631">
-      <c r="I631" s="14"/>
-      <c r="K631" s="15"/>
+      <c r="I631" s="21"/>
+      <c r="K631" s="22"/>
     </row>
     <row r="632">
-      <c r="I632" s="14"/>
-      <c r="K632" s="15"/>
+      <c r="I632" s="21"/>
+      <c r="K632" s="22"/>
     </row>
     <row r="633">
-      <c r="I633" s="14"/>
-      <c r="K633" s="15"/>
+      <c r="I633" s="21"/>
+      <c r="K633" s="22"/>
     </row>
     <row r="634">
-      <c r="I634" s="14"/>
-      <c r="K634" s="15"/>
+      <c r="I634" s="21"/>
+      <c r="K634" s="22"/>
     </row>
     <row r="635">
-      <c r="I635" s="14"/>
-      <c r="K635" s="15"/>
+      <c r="I635" s="21"/>
+      <c r="K635" s="22"/>
     </row>
     <row r="636">
-      <c r="I636" s="14"/>
-      <c r="K636" s="15"/>
+      <c r="I636" s="21"/>
+      <c r="K636" s="22"/>
     </row>
     <row r="637">
-      <c r="I637" s="14"/>
-      <c r="K637" s="15"/>
+      <c r="I637" s="21"/>
+      <c r="K637" s="22"/>
     </row>
     <row r="638">
-      <c r="I638" s="14"/>
-      <c r="K638" s="15"/>
+      <c r="I638" s="21"/>
+      <c r="K638" s="22"/>
     </row>
     <row r="639">
-      <c r="I639" s="14"/>
-      <c r="K639" s="15"/>
+      <c r="I639" s="21"/>
+      <c r="K639" s="22"/>
     </row>
     <row r="640">
-      <c r="I640" s="14"/>
-      <c r="K640" s="15"/>
+      <c r="I640" s="21"/>
+      <c r="K640" s="22"/>
     </row>
     <row r="641">
-      <c r="I641" s="14"/>
-      <c r="K641" s="15"/>
+      <c r="I641" s="21"/>
+      <c r="K641" s="22"/>
     </row>
     <row r="642">
-      <c r="I642" s="14"/>
-      <c r="K642" s="15"/>
+      <c r="I642" s="21"/>
+      <c r="K642" s="22"/>
     </row>
     <row r="643">
-      <c r="I643" s="14"/>
-      <c r="K643" s="15"/>
+      <c r="I643" s="21"/>
+      <c r="K643" s="22"/>
     </row>
     <row r="644">
-      <c r="I644" s="14"/>
-      <c r="K644" s="15"/>
+      <c r="I644" s="21"/>
+      <c r="K644" s="22"/>
     </row>
     <row r="645">
-      <c r="I645" s="14"/>
-      <c r="K645" s="15"/>
+      <c r="I645" s="21"/>
+      <c r="K645" s="22"/>
     </row>
     <row r="646">
-      <c r="I646" s="14"/>
-      <c r="K646" s="15"/>
+      <c r="I646" s="21"/>
+      <c r="K646" s="22"/>
     </row>
     <row r="647">
-      <c r="I647" s="14"/>
-      <c r="K647" s="15"/>
+      <c r="I647" s="21"/>
+      <c r="K647" s="22"/>
     </row>
     <row r="648">
-      <c r="I648" s="14"/>
-      <c r="K648" s="15"/>
+      <c r="I648" s="21"/>
+      <c r="K648" s="22"/>
     </row>
     <row r="649">
-      <c r="I649" s="14"/>
-      <c r="K649" s="15"/>
+      <c r="I649" s="21"/>
+      <c r="K649" s="22"/>
     </row>
     <row r="650">
-      <c r="I650" s="14"/>
-      <c r="K650" s="15"/>
+      <c r="I650" s="21"/>
+      <c r="K650" s="22"/>
     </row>
     <row r="651">
-      <c r="I651" s="14"/>
-      <c r="K651" s="15"/>
+      <c r="I651" s="21"/>
+      <c r="K651" s="22"/>
     </row>
     <row r="652">
-      <c r="I652" s="14"/>
-      <c r="K652" s="15"/>
+      <c r="I652" s="21"/>
+      <c r="K652" s="22"/>
     </row>
     <row r="653">
-      <c r="I653" s="14"/>
-      <c r="K653" s="15"/>
+      <c r="I653" s="21"/>
+      <c r="K653" s="22"/>
     </row>
     <row r="654">
-      <c r="I654" s="14"/>
-      <c r="K654" s="15"/>
+      <c r="I654" s="21"/>
+      <c r="K654" s="22"/>
     </row>
     <row r="655">
-      <c r="I655" s="14"/>
-      <c r="K655" s="15"/>
+      <c r="I655" s="21"/>
+      <c r="K655" s="22"/>
     </row>
     <row r="656">
-      <c r="I656" s="14"/>
-      <c r="K656" s="15"/>
+      <c r="I656" s="21"/>
+      <c r="K656" s="22"/>
     </row>
     <row r="657">
-      <c r="I657" s="14"/>
-      <c r="K657" s="15"/>
+      <c r="I657" s="21"/>
+      <c r="K657" s="22"/>
     </row>
     <row r="658">
-      <c r="I658" s="14"/>
-      <c r="K658" s="15"/>
+      <c r="I658" s="21"/>
+      <c r="K658" s="22"/>
     </row>
     <row r="659">
-      <c r="I659" s="14"/>
-      <c r="K659" s="15"/>
+      <c r="I659" s="21"/>
+      <c r="K659" s="22"/>
     </row>
     <row r="660">
-      <c r="I660" s="14"/>
-      <c r="K660" s="15"/>
+      <c r="I660" s="21"/>
+      <c r="K660" s="22"/>
     </row>
     <row r="661">
-      <c r="I661" s="14"/>
-      <c r="K661" s="15"/>
+      <c r="I661" s="21"/>
+      <c r="K661" s="22"/>
     </row>
     <row r="662">
-      <c r="I662" s="14"/>
-      <c r="K662" s="15"/>
+      <c r="I662" s="21"/>
+      <c r="K662" s="22"/>
     </row>
     <row r="663">
-      <c r="I663" s="14"/>
-      <c r="K663" s="15"/>
+      <c r="I663" s="21"/>
+      <c r="K663" s="22"/>
     </row>
     <row r="664">
-      <c r="I664" s="14"/>
-      <c r="K664" s="15"/>
+      <c r="I664" s="21"/>
+      <c r="K664" s="22"/>
     </row>
     <row r="665">
-      <c r="I665" s="14"/>
-      <c r="K665" s="15"/>
+      <c r="I665" s="21"/>
+      <c r="K665" s="22"/>
     </row>
     <row r="666">
-      <c r="I666" s="14"/>
-      <c r="K666" s="15"/>
+      <c r="I666" s="21"/>
+      <c r="K666" s="22"/>
     </row>
     <row r="667">
-      <c r="I667" s="14"/>
-      <c r="K667" s="15"/>
+      <c r="I667" s="21"/>
+      <c r="K667" s="22"/>
     </row>
     <row r="668">
-      <c r="I668" s="14"/>
-      <c r="K668" s="15"/>
+      <c r="I668" s="21"/>
+      <c r="K668" s="22"/>
     </row>
     <row r="669">
-      <c r="I669" s="14"/>
-      <c r="K669" s="15"/>
+      <c r="I669" s="21"/>
+      <c r="K669" s="22"/>
     </row>
     <row r="670">
-      <c r="I670" s="14"/>
-      <c r="K670" s="15"/>
+      <c r="I670" s="21"/>
+      <c r="K670" s="22"/>
     </row>
     <row r="671">
-      <c r="I671" s="14"/>
-      <c r="K671" s="15"/>
+      <c r="I671" s="21"/>
+      <c r="K671" s="22"/>
     </row>
     <row r="672">
-      <c r="I672" s="14"/>
-      <c r="K672" s="15"/>
+      <c r="I672" s="21"/>
+      <c r="K672" s="22"/>
     </row>
     <row r="673">
-      <c r="I673" s="14"/>
-      <c r="K673" s="15"/>
+      <c r="I673" s="21"/>
+      <c r="K673" s="22"/>
     </row>
     <row r="674">
-      <c r="I674" s="14"/>
-      <c r="K674" s="15"/>
+      <c r="I674" s="21"/>
+      <c r="K674" s="22"/>
     </row>
     <row r="675">
-      <c r="I675" s="14"/>
-      <c r="K675" s="15"/>
+      <c r="I675" s="21"/>
+      <c r="K675" s="22"/>
     </row>
     <row r="676">
-      <c r="I676" s="14"/>
-      <c r="K676" s="15"/>
+      <c r="I676" s="21"/>
+      <c r="K676" s="22"/>
     </row>
     <row r="677">
-      <c r="I677" s="14"/>
-      <c r="K677" s="15"/>
+      <c r="I677" s="21"/>
+      <c r="K677" s="22"/>
     </row>
     <row r="678">
-      <c r="I678" s="14"/>
-      <c r="K678" s="15"/>
+      <c r="I678" s="21"/>
+      <c r="K678" s="22"/>
     </row>
     <row r="679">
-      <c r="I679" s="14"/>
-      <c r="K679" s="15"/>
+      <c r="I679" s="21"/>
+      <c r="K679" s="22"/>
     </row>
     <row r="680">
-      <c r="I680" s="14"/>
-      <c r="K680" s="15"/>
+      <c r="I680" s="21"/>
+      <c r="K680" s="22"/>
     </row>
     <row r="681">
-      <c r="I681" s="14"/>
-      <c r="K681" s="15"/>
+      <c r="I681" s="21"/>
+      <c r="K681" s="22"/>
     </row>
     <row r="682">
-      <c r="I682" s="14"/>
-      <c r="K682" s="15"/>
+      <c r="I682" s="21"/>
+      <c r="K682" s="22"/>
     </row>
     <row r="683">
-      <c r="I683" s="14"/>
-      <c r="K683" s="15"/>
+      <c r="I683" s="21"/>
+      <c r="K683" s="22"/>
     </row>
     <row r="684">
-      <c r="I684" s="14"/>
-      <c r="K684" s="15"/>
+      <c r="I684" s="21"/>
+      <c r="K684" s="22"/>
     </row>
     <row r="685">
-      <c r="I685" s="14"/>
-      <c r="K685" s="15"/>
+      <c r="I685" s="21"/>
+      <c r="K685" s="22"/>
     </row>
     <row r="686">
-      <c r="I686" s="14"/>
-      <c r="K686" s="15"/>
+      <c r="I686" s="21"/>
+      <c r="K686" s="22"/>
     </row>
     <row r="687">
-      <c r="I687" s="14"/>
-      <c r="K687" s="15"/>
+      <c r="I687" s="21"/>
+      <c r="K687" s="22"/>
     </row>
     <row r="688">
-      <c r="I688" s="14"/>
-      <c r="K688" s="15"/>
+      <c r="I688" s="21"/>
+      <c r="K688" s="22"/>
     </row>
     <row r="689">
-      <c r="I689" s="14"/>
-      <c r="K689" s="15"/>
+      <c r="I689" s="21"/>
+      <c r="K689" s="22"/>
     </row>
     <row r="690">
-      <c r="I690" s="14"/>
-      <c r="K690" s="15"/>
+      <c r="I690" s="21"/>
+      <c r="K690" s="22"/>
     </row>
     <row r="691">
-      <c r="I691" s="14"/>
-      <c r="K691" s="15"/>
+      <c r="I691" s="21"/>
+      <c r="K691" s="22"/>
     </row>
     <row r="692">
-      <c r="I692" s="14"/>
-      <c r="K692" s="15"/>
+      <c r="I692" s="21"/>
+      <c r="K692" s="22"/>
     </row>
     <row r="693">
-      <c r="I693" s="14"/>
-      <c r="K693" s="15"/>
+      <c r="I693" s="21"/>
+      <c r="K693" s="22"/>
     </row>
     <row r="694">
-      <c r="I694" s="14"/>
-      <c r="K694" s="15"/>
+      <c r="I694" s="21"/>
+      <c r="K694" s="22"/>
     </row>
     <row r="695">
-      <c r="I695" s="14"/>
-      <c r="K695" s="15"/>
+      <c r="I695" s="21"/>
+      <c r="K695" s="22"/>
     </row>
     <row r="696">
-      <c r="I696" s="14"/>
-      <c r="K696" s="15"/>
+      <c r="I696" s="21"/>
+      <c r="K696" s="22"/>
     </row>
     <row r="697">
-      <c r="I697" s="14"/>
-      <c r="K697" s="15"/>
+      <c r="I697" s="21"/>
+      <c r="K697" s="22"/>
     </row>
     <row r="698">
-      <c r="I698" s="14"/>
-      <c r="K698" s="15"/>
+      <c r="I698" s="21"/>
+      <c r="K698" s="22"/>
     </row>
     <row r="699">
-      <c r="I699" s="14"/>
-      <c r="K699" s="15"/>
+      <c r="I699" s="21"/>
+      <c r="K699" s="22"/>
     </row>
     <row r="700">
-      <c r="I700" s="14"/>
-      <c r="K700" s="15"/>
+      <c r="I700" s="21"/>
+      <c r="K700" s="22"/>
     </row>
     <row r="701">
-      <c r="I701" s="14"/>
-      <c r="K701" s="15"/>
+      <c r="I701" s="21"/>
+      <c r="K701" s="22"/>
     </row>
     <row r="702">
-      <c r="I702" s="14"/>
-      <c r="K702" s="15"/>
+      <c r="I702" s="21"/>
+      <c r="K702" s="22"/>
     </row>
     <row r="703">
-      <c r="I703" s="14"/>
-      <c r="K703" s="15"/>
+      <c r="I703" s="21"/>
+      <c r="K703" s="22"/>
     </row>
     <row r="704">
-      <c r="I704" s="14"/>
-      <c r="K704" s="15"/>
+      <c r="I704" s="21"/>
+      <c r="K704" s="22"/>
     </row>
     <row r="705">
-      <c r="I705" s="14"/>
-      <c r="K705" s="15"/>
+      <c r="I705" s="21"/>
+      <c r="K705" s="22"/>
     </row>
     <row r="706">
-      <c r="I706" s="14"/>
-      <c r="K706" s="15"/>
+      <c r="I706" s="21"/>
+      <c r="K706" s="22"/>
     </row>
     <row r="707">
-      <c r="I707" s="14"/>
-      <c r="K707" s="15"/>
+      <c r="I707" s="21"/>
+      <c r="K707" s="22"/>
     </row>
     <row r="708">
-      <c r="I708" s="14"/>
-      <c r="K708" s="15"/>
+      <c r="I708" s="21"/>
+      <c r="K708" s="22"/>
     </row>
     <row r="709">
-      <c r="I709" s="14"/>
-      <c r="K709" s="15"/>
+      <c r="I709" s="21"/>
+      <c r="K709" s="22"/>
     </row>
     <row r="710">
-      <c r="I710" s="14"/>
-      <c r="K710" s="15"/>
+      <c r="I710" s="21"/>
+      <c r="K710" s="22"/>
     </row>
     <row r="711">
-      <c r="I711" s="14"/>
-      <c r="K711" s="15"/>
+      <c r="I711" s="21"/>
+      <c r="K711" s="22"/>
     </row>
     <row r="712">
-      <c r="I712" s="14"/>
-      <c r="K712" s="15"/>
+      <c r="I712" s="21"/>
+      <c r="K712" s="22"/>
     </row>
     <row r="713">
-      <c r="I713" s="14"/>
-      <c r="K713" s="15"/>
+      <c r="I713" s="21"/>
+      <c r="K713" s="22"/>
     </row>
     <row r="714">
-      <c r="I714" s="14"/>
-      <c r="K714" s="15"/>
+      <c r="I714" s="21"/>
+      <c r="K714" s="22"/>
     </row>
     <row r="715">
-      <c r="I715" s="14"/>
-      <c r="K715" s="15"/>
+      <c r="I715" s="21"/>
+      <c r="K715" s="22"/>
     </row>
     <row r="716">
-      <c r="I716" s="14"/>
-      <c r="K716" s="15"/>
+      <c r="I716" s="21"/>
+      <c r="K716" s="22"/>
     </row>
     <row r="717">
-      <c r="I717" s="14"/>
-      <c r="K717" s="15"/>
+      <c r="I717" s="21"/>
+      <c r="K717" s="22"/>
     </row>
     <row r="718">
-      <c r="I718" s="14"/>
-      <c r="K718" s="15"/>
+      <c r="I718" s="21"/>
+      <c r="K718" s="22"/>
     </row>
     <row r="719">
-      <c r="I719" s="14"/>
-      <c r="K719" s="15"/>
+      <c r="I719" s="21"/>
+      <c r="K719" s="22"/>
     </row>
     <row r="720">
-      <c r="I720" s="14"/>
-      <c r="K720" s="15"/>
+      <c r="I720" s="21"/>
+      <c r="K720" s="22"/>
     </row>
     <row r="721">
-      <c r="I721" s="14"/>
-      <c r="K721" s="15"/>
+      <c r="I721" s="21"/>
+      <c r="K721" s="22"/>
     </row>
     <row r="722">
-      <c r="I722" s="14"/>
-      <c r="K722" s="15"/>
+      <c r="I722" s="21"/>
+      <c r="K722" s="22"/>
     </row>
     <row r="723">
-      <c r="I723" s="14"/>
-      <c r="K723" s="15"/>
+      <c r="I723" s="21"/>
+      <c r="K723" s="22"/>
     </row>
     <row r="724">
-      <c r="I724" s="14"/>
-      <c r="K724" s="15"/>
+      <c r="I724" s="21"/>
+      <c r="K724" s="22"/>
     </row>
     <row r="725">
-      <c r="I725" s="14"/>
-      <c r="K725" s="15"/>
+      <c r="I725" s="21"/>
+      <c r="K725" s="22"/>
     </row>
     <row r="726">
-      <c r="I726" s="14"/>
-      <c r="K726" s="15"/>
+      <c r="I726" s="21"/>
+      <c r="K726" s="22"/>
     </row>
     <row r="727">
-      <c r="I727" s="14"/>
-      <c r="K727" s="15"/>
+      <c r="I727" s="21"/>
+      <c r="K727" s="22"/>
     </row>
     <row r="728">
-      <c r="I728" s="14"/>
-      <c r="K728" s="15"/>
+      <c r="I728" s="21"/>
+      <c r="K728" s="22"/>
     </row>
     <row r="729">
-      <c r="I729" s="14"/>
-      <c r="K729" s="15"/>
+      <c r="I729" s="21"/>
+      <c r="K729" s="22"/>
     </row>
     <row r="730">
-      <c r="I730" s="14"/>
-      <c r="K730" s="15"/>
+      <c r="I730" s="21"/>
+      <c r="K730" s="22"/>
     </row>
     <row r="731">
-      <c r="I731" s="14"/>
-      <c r="K731" s="15"/>
+      <c r="I731" s="21"/>
+      <c r="K731" s="22"/>
     </row>
     <row r="732">
-      <c r="I732" s="14"/>
-      <c r="K732" s="15"/>
+      <c r="I732" s="21"/>
+      <c r="K732" s="22"/>
     </row>
     <row r="733">
-      <c r="I733" s="14"/>
-      <c r="K733" s="15"/>
+      <c r="I733" s="21"/>
+      <c r="K733" s="22"/>
     </row>
     <row r="734">
-      <c r="I734" s="14"/>
-      <c r="K734" s="15"/>
+      <c r="I734" s="21"/>
+      <c r="K734" s="22"/>
     </row>
     <row r="735">
-      <c r="I735" s="14"/>
-      <c r="K735" s="15"/>
+      <c r="I735" s="21"/>
+      <c r="K735" s="22"/>
     </row>
     <row r="736">
-      <c r="I736" s="14"/>
-      <c r="K736" s="15"/>
+      <c r="I736" s="21"/>
+      <c r="K736" s="22"/>
     </row>
     <row r="737">
-      <c r="I737" s="14"/>
-      <c r="K737" s="15"/>
+      <c r="I737" s="21"/>
+      <c r="K737" s="22"/>
     </row>
     <row r="738">
-      <c r="I738" s="14"/>
-      <c r="K738" s="15"/>
+      <c r="I738" s="21"/>
+      <c r="K738" s="22"/>
     </row>
     <row r="739">
-      <c r="I739" s="14"/>
-      <c r="K739" s="15"/>
+      <c r="I739" s="21"/>
+      <c r="K739" s="22"/>
     </row>
     <row r="740">
-      <c r="I740" s="14"/>
-      <c r="K740" s="15"/>
+      <c r="I740" s="21"/>
+      <c r="K740" s="22"/>
     </row>
     <row r="741">
-      <c r="I741" s="14"/>
-      <c r="K741" s="15"/>
+      <c r="I741" s="21"/>
+      <c r="K741" s="22"/>
     </row>
     <row r="742">
-      <c r="I742" s="14"/>
-      <c r="K742" s="15"/>
+      <c r="I742" s="21"/>
+      <c r="K742" s="22"/>
     </row>
     <row r="743">
-      <c r="I743" s="14"/>
-      <c r="K743" s="15"/>
+      <c r="I743" s="21"/>
+      <c r="K743" s="22"/>
     </row>
     <row r="744">
-      <c r="I744" s="14"/>
-      <c r="K744" s="15"/>
+      <c r="I744" s="21"/>
+      <c r="K744" s="22"/>
     </row>
     <row r="745">
-      <c r="I745" s="14"/>
-      <c r="K745" s="15"/>
+      <c r="I745" s="21"/>
+      <c r="K745" s="22"/>
     </row>
     <row r="746">
-      <c r="I746" s="14"/>
-      <c r="K746" s="15"/>
+      <c r="I746" s="21"/>
+      <c r="K746" s="22"/>
     </row>
     <row r="747">
-      <c r="I747" s="14"/>
-      <c r="K747" s="15"/>
+      <c r="I747" s="21"/>
+      <c r="K747" s="22"/>
     </row>
     <row r="748">
-      <c r="I748" s="14"/>
-      <c r="K748" s="15"/>
+      <c r="I748" s="21"/>
+      <c r="K748" s="22"/>
     </row>
     <row r="749">
-      <c r="I749" s="14"/>
-      <c r="K749" s="15"/>
+      <c r="I749" s="21"/>
+      <c r="K749" s="22"/>
     </row>
     <row r="750">
-      <c r="I750" s="14"/>
-      <c r="K750" s="15"/>
+      <c r="I750" s="21"/>
+      <c r="K750" s="22"/>
     </row>
     <row r="751">
-      <c r="I751" s="14"/>
-      <c r="K751" s="15"/>
+      <c r="I751" s="21"/>
+      <c r="K751" s="22"/>
     </row>
     <row r="752">
-      <c r="I752" s="14"/>
-      <c r="K752" s="15"/>
+      <c r="I752" s="21"/>
+      <c r="K752" s="22"/>
     </row>
     <row r="753">
-      <c r="I753" s="14"/>
-      <c r="K753" s="15"/>
+      <c r="I753" s="21"/>
+      <c r="K753" s="22"/>
     </row>
     <row r="754">
-      <c r="I754" s="14"/>
-      <c r="K754" s="15"/>
+      <c r="I754" s="21"/>
+      <c r="K754" s="22"/>
     </row>
     <row r="755">
-      <c r="I755" s="14"/>
-      <c r="K755" s="15"/>
+      <c r="I755" s="21"/>
+      <c r="K755" s="22"/>
     </row>
     <row r="756">
-      <c r="I756" s="14"/>
-      <c r="K756" s="15"/>
+      <c r="I756" s="21"/>
+      <c r="K756" s="22"/>
     </row>
     <row r="757">
-      <c r="I757" s="14"/>
-      <c r="K757" s="15"/>
+      <c r="I757" s="21"/>
+      <c r="K757" s="22"/>
     </row>
     <row r="758">
-      <c r="I758" s="14"/>
-      <c r="K758" s="15"/>
+      <c r="I758" s="21"/>
+      <c r="K758" s="22"/>
     </row>
     <row r="759">
-      <c r="I759" s="14"/>
-      <c r="K759" s="15"/>
+      <c r="I759" s="21"/>
+      <c r="K759" s="22"/>
     </row>
     <row r="760">
-      <c r="I760" s="14"/>
-      <c r="K760" s="15"/>
+      <c r="I760" s="21"/>
+      <c r="K760" s="22"/>
     </row>
     <row r="761">
-      <c r="I761" s="14"/>
-      <c r="K761" s="15"/>
+      <c r="I761" s="21"/>
+      <c r="K761" s="22"/>
     </row>
     <row r="762">
-      <c r="I762" s="14"/>
-      <c r="K762" s="15"/>
+      <c r="I762" s="21"/>
+      <c r="K762" s="22"/>
     </row>
     <row r="763">
-      <c r="I763" s="14"/>
-      <c r="K763" s="15"/>
+      <c r="I763" s="21"/>
+      <c r="K763" s="22"/>
     </row>
     <row r="764">
-      <c r="I764" s="14"/>
-      <c r="K764" s="15"/>
+      <c r="I764" s="21"/>
+      <c r="K764" s="22"/>
     </row>
     <row r="765">
-      <c r="I765" s="14"/>
-      <c r="K765" s="15"/>
+      <c r="I765" s="21"/>
+      <c r="K765" s="22"/>
     </row>
     <row r="766">
-      <c r="I766" s="14"/>
-      <c r="K766" s="15"/>
+      <c r="I766" s="21"/>
+      <c r="K766" s="22"/>
     </row>
     <row r="767">
-      <c r="I767" s="14"/>
-      <c r="K767" s="15"/>
+      <c r="I767" s="21"/>
+      <c r="K767" s="22"/>
     </row>
     <row r="768">
-      <c r="I768" s="14"/>
-      <c r="K768" s="15"/>
+      <c r="I768" s="21"/>
+      <c r="K768" s="22"/>
     </row>
     <row r="769">
-      <c r="I769" s="14"/>
-      <c r="K769" s="15"/>
+      <c r="I769" s="21"/>
+      <c r="K769" s="22"/>
     </row>
     <row r="770">
-      <c r="I770" s="14"/>
-      <c r="K770" s="15"/>
+      <c r="I770" s="21"/>
+      <c r="K770" s="22"/>
     </row>
     <row r="771">
-      <c r="I771" s="14"/>
-      <c r="K771" s="15"/>
+      <c r="I771" s="21"/>
+      <c r="K771" s="22"/>
     </row>
     <row r="772">
-      <c r="I772" s="14"/>
-      <c r="K772" s="15"/>
+      <c r="I772" s="21"/>
+      <c r="K772" s="22"/>
     </row>
     <row r="773">
-      <c r="I773" s="14"/>
-      <c r="K773" s="15"/>
+      <c r="I773" s="21"/>
+      <c r="K773" s="22"/>
     </row>
     <row r="774">
-      <c r="I774" s="14"/>
-      <c r="K774" s="15"/>
+      <c r="I774" s="21"/>
+      <c r="K774" s="22"/>
     </row>
     <row r="775">
-      <c r="I775" s="14"/>
-      <c r="K775" s="15"/>
+      <c r="I775" s="21"/>
+      <c r="K775" s="22"/>
     </row>
     <row r="776">
-      <c r="I776" s="14"/>
-      <c r="K776" s="15"/>
+      <c r="I776" s="21"/>
+      <c r="K776" s="22"/>
     </row>
     <row r="777">
-      <c r="I777" s="14"/>
-      <c r="K777" s="15"/>
+      <c r="I777" s="21"/>
+      <c r="K777" s="22"/>
     </row>
     <row r="778">
-      <c r="I778" s="14"/>
-      <c r="K778" s="15"/>
+      <c r="I778" s="21"/>
+      <c r="K778" s="22"/>
     </row>
     <row r="779">
-      <c r="I779" s="14"/>
-      <c r="K779" s="15"/>
+      <c r="I779" s="21"/>
+      <c r="K779" s="22"/>
     </row>
     <row r="780">
-      <c r="I780" s="14"/>
-      <c r="K780" s="15"/>
+      <c r="I780" s="21"/>
+      <c r="K780" s="22"/>
     </row>
     <row r="781">
-      <c r="I781" s="14"/>
-      <c r="K781" s="15"/>
+      <c r="I781" s="21"/>
+      <c r="K781" s="22"/>
     </row>
     <row r="782">
-      <c r="I782" s="14"/>
-      <c r="K782" s="15"/>
+      <c r="I782" s="21"/>
+      <c r="K782" s="22"/>
     </row>
     <row r="783">
-      <c r="I783" s="14"/>
-      <c r="K783" s="15"/>
+      <c r="I783" s="21"/>
+      <c r="K783" s="22"/>
     </row>
     <row r="784">
-      <c r="I784" s="14"/>
-      <c r="K784" s="15"/>
+      <c r="I784" s="21"/>
+      <c r="K784" s="22"/>
     </row>
     <row r="785">
-      <c r="I785" s="14"/>
-      <c r="K785" s="15"/>
+      <c r="I785" s="21"/>
+      <c r="K785" s="22"/>
     </row>
     <row r="786">
-      <c r="I786" s="14"/>
-      <c r="K786" s="15"/>
+      <c r="I786" s="21"/>
+      <c r="K786" s="22"/>
     </row>
     <row r="787">
-      <c r="I787" s="14"/>
-      <c r="K787" s="15"/>
+      <c r="I787" s="21"/>
+      <c r="K787" s="22"/>
     </row>
     <row r="788">
-      <c r="I788" s="14"/>
-      <c r="K788" s="15"/>
+      <c r="I788" s="21"/>
+      <c r="K788" s="22"/>
     </row>
     <row r="789">
-      <c r="I789" s="14"/>
-      <c r="K789" s="15"/>
+      <c r="I789" s="21"/>
+      <c r="K789" s="22"/>
     </row>
     <row r="790">
-      <c r="I790" s="14"/>
-      <c r="K790" s="15"/>
+      <c r="I790" s="21"/>
+      <c r="K790" s="22"/>
     </row>
     <row r="791">
-      <c r="I791" s="14"/>
-      <c r="K791" s="15"/>
+      <c r="I791" s="21"/>
+      <c r="K791" s="22"/>
     </row>
     <row r="792">
-      <c r="I792" s="14"/>
-      <c r="K792" s="15"/>
+      <c r="I792" s="21"/>
+      <c r="K792" s="22"/>
     </row>
     <row r="793">
-      <c r="I793" s="14"/>
-      <c r="K793" s="15"/>
+      <c r="I793" s="21"/>
+      <c r="K793" s="22"/>
     </row>
     <row r="794">
-      <c r="I794" s="14"/>
-      <c r="K794" s="15"/>
+      <c r="I794" s="21"/>
+      <c r="K794" s="22"/>
     </row>
     <row r="795">
-      <c r="I795" s="14"/>
-      <c r="K795" s="15"/>
+      <c r="I795" s="21"/>
+      <c r="K795" s="22"/>
     </row>
     <row r="796">
-      <c r="I796" s="14"/>
-      <c r="K796" s="15"/>
+      <c r="I796" s="21"/>
+      <c r="K796" s="22"/>
     </row>
     <row r="797">
-      <c r="I797" s="14"/>
-      <c r="K797" s="15"/>
+      <c r="I797" s="21"/>
+      <c r="K797" s="22"/>
     </row>
     <row r="798">
-      <c r="I798" s="14"/>
-      <c r="K798" s="15"/>
+      <c r="I798" s="21"/>
+      <c r="K798" s="22"/>
     </row>
     <row r="799">
-      <c r="I799" s="14"/>
-      <c r="K799" s="15"/>
+      <c r="I799" s="21"/>
+      <c r="K799" s="22"/>
     </row>
     <row r="800">
-      <c r="I800" s="14"/>
-      <c r="K800" s="15"/>
+      <c r="I800" s="21"/>
+      <c r="K800" s="22"/>
     </row>
     <row r="801">
-      <c r="I801" s="14"/>
-      <c r="K801" s="15"/>
+      <c r="I801" s="21"/>
+      <c r="K801" s="22"/>
     </row>
     <row r="802">
-      <c r="I802" s="14"/>
-      <c r="K802" s="15"/>
+      <c r="I802" s="21"/>
+      <c r="K802" s="22"/>
     </row>
     <row r="803">
-      <c r="I803" s="14"/>
-      <c r="K803" s="15"/>
+      <c r="I803" s="21"/>
+      <c r="K803" s="22"/>
     </row>
     <row r="804">
-      <c r="I804" s="14"/>
-      <c r="K804" s="15"/>
+      <c r="I804" s="21"/>
+      <c r="K804" s="22"/>
     </row>
     <row r="805">
-      <c r="I805" s="14"/>
-      <c r="K805" s="15"/>
+      <c r="I805" s="21"/>
+      <c r="K805" s="22"/>
     </row>
     <row r="806">
-      <c r="I806" s="14"/>
-      <c r="K806" s="15"/>
+      <c r="I806" s="21"/>
+      <c r="K806" s="22"/>
     </row>
     <row r="807">
-      <c r="I807" s="14"/>
-      <c r="K807" s="15"/>
+      <c r="I807" s="21"/>
+      <c r="K807" s="22"/>
     </row>
     <row r="808">
-      <c r="I808" s="14"/>
-      <c r="K808" s="15"/>
+      <c r="I808" s="21"/>
+      <c r="K808" s="22"/>
     </row>
     <row r="809">
-      <c r="I809" s="14"/>
-      <c r="K809" s="15"/>
+      <c r="I809" s="21"/>
+      <c r="K809" s="22"/>
     </row>
     <row r="810">
-      <c r="I810" s="14"/>
-      <c r="K810" s="15"/>
+      <c r="I810" s="21"/>
+      <c r="K810" s="22"/>
     </row>
     <row r="811">
-      <c r="I811" s="14"/>
-      <c r="K811" s="15"/>
+      <c r="I811" s="21"/>
+      <c r="K811" s="22"/>
     </row>
     <row r="812">
-      <c r="I812" s="14"/>
-      <c r="K812" s="15"/>
+      <c r="I812" s="21"/>
+      <c r="K812" s="22"/>
     </row>
     <row r="813">
-      <c r="I813" s="14"/>
-      <c r="K813" s="15"/>
+      <c r="I813" s="21"/>
+      <c r="K813" s="22"/>
     </row>
     <row r="814">
-      <c r="I814" s="14"/>
-      <c r="K814" s="15"/>
+      <c r="I814" s="21"/>
+      <c r="K814" s="22"/>
     </row>
     <row r="815">
-      <c r="I815" s="14"/>
-      <c r="K815" s="15"/>
+      <c r="I815" s="21"/>
+      <c r="K815" s="22"/>
     </row>
     <row r="816">
-      <c r="I816" s="14"/>
-      <c r="K816" s="15"/>
+      <c r="I816" s="21"/>
+      <c r="K816" s="22"/>
     </row>
     <row r="817">
-      <c r="I817" s="14"/>
-      <c r="K817" s="15"/>
+      <c r="I817" s="21"/>
+      <c r="K817" s="22"/>
     </row>
     <row r="818">
-      <c r="I818" s="14"/>
-      <c r="K818" s="15"/>
+      <c r="I818" s="21"/>
+      <c r="K818" s="22"/>
     </row>
     <row r="819">
-      <c r="I819" s="14"/>
-      <c r="K819" s="15"/>
+      <c r="I819" s="21"/>
+      <c r="K819" s="22"/>
     </row>
     <row r="820">
-      <c r="I820" s="14"/>
-      <c r="K820" s="15"/>
+      <c r="I820" s="21"/>
+      <c r="K820" s="22"/>
     </row>
     <row r="821">
-      <c r="I821" s="14"/>
-      <c r="K821" s="15"/>
+      <c r="I821" s="21"/>
+      <c r="K821" s="22"/>
     </row>
     <row r="822">
-      <c r="I822" s="14"/>
-      <c r="K822" s="15"/>
+      <c r="I822" s="21"/>
+      <c r="K822" s="22"/>
     </row>
     <row r="823">
-      <c r="I823" s="14"/>
-      <c r="K823" s="15"/>
+      <c r="I823" s="21"/>
+      <c r="K823" s="22"/>
     </row>
     <row r="824">
-      <c r="I824" s="14"/>
-      <c r="K824" s="15"/>
+      <c r="I824" s="21"/>
+      <c r="K824" s="22"/>
     </row>
     <row r="825">
-      <c r="I825" s="14"/>
-      <c r="K825" s="15"/>
+      <c r="I825" s="21"/>
+      <c r="K825" s="22"/>
     </row>
     <row r="826">
-      <c r="I826" s="14"/>
-      <c r="K826" s="15"/>
+      <c r="I826" s="21"/>
+      <c r="K826" s="22"/>
     </row>
     <row r="827">
-      <c r="I827" s="14"/>
-      <c r="K827" s="15"/>
+      <c r="I827" s="21"/>
+      <c r="K827" s="22"/>
     </row>
     <row r="828">
-      <c r="I828" s="14"/>
-      <c r="K828" s="15"/>
+      <c r="I828" s="21"/>
+      <c r="K828" s="22"/>
     </row>
     <row r="829">
-      <c r="I829" s="14"/>
-      <c r="K829" s="15"/>
+      <c r="I829" s="21"/>
+      <c r="K829" s="22"/>
     </row>
     <row r="830">
-      <c r="I830" s="14"/>
-      <c r="K830" s="15"/>
+      <c r="I830" s="21"/>
+      <c r="K830" s="22"/>
     </row>
     <row r="831">
-      <c r="I831" s="14"/>
-      <c r="K831" s="15"/>
+      <c r="I831" s="21"/>
+      <c r="K831" s="22"/>
     </row>
     <row r="832">
-      <c r="I832" s="14"/>
-      <c r="K832" s="15"/>
+      <c r="I832" s="21"/>
+      <c r="K832" s="22"/>
     </row>
     <row r="833">
-      <c r="I833" s="14"/>
-      <c r="K833" s="15"/>
+      <c r="I833" s="21"/>
+      <c r="K833" s="22"/>
     </row>
     <row r="834">
-      <c r="I834" s="14"/>
-      <c r="K834" s="15"/>
+      <c r="I834" s="21"/>
+      <c r="K834" s="22"/>
     </row>
     <row r="835">
-      <c r="I835" s="14"/>
-      <c r="K835" s="15"/>
+      <c r="I835" s="21"/>
+      <c r="K835" s="22"/>
     </row>
     <row r="836">
-      <c r="I836" s="14"/>
-      <c r="K836" s="15"/>
+      <c r="I836" s="21"/>
+      <c r="K836" s="22"/>
     </row>
     <row r="837">
-      <c r="I837" s="14"/>
-      <c r="K837" s="15"/>
+      <c r="I837" s="21"/>
+      <c r="K837" s="22"/>
     </row>
     <row r="838">
-      <c r="I838" s="14"/>
-      <c r="K838" s="15"/>
+      <c r="I838" s="21"/>
+      <c r="K838" s="22"/>
     </row>
     <row r="839">
-      <c r="I839" s="14"/>
-      <c r="K839" s="15"/>
+      <c r="I839" s="21"/>
+      <c r="K839" s="22"/>
     </row>
     <row r="840">
-      <c r="I840" s="14"/>
-      <c r="K840" s="15"/>
+      <c r="I840" s="21"/>
+      <c r="K840" s="22"/>
     </row>
     <row r="841">
-      <c r="I841" s="14"/>
-      <c r="K841" s="15"/>
+      <c r="I841" s="21"/>
+      <c r="K841" s="22"/>
     </row>
     <row r="842">
-      <c r="I842" s="14"/>
-      <c r="K842" s="15"/>
+      <c r="I842" s="21"/>
+      <c r="K842" s="22"/>
     </row>
     <row r="843">
-      <c r="I843" s="14"/>
-      <c r="K843" s="15"/>
+      <c r="I843" s="21"/>
+      <c r="K843" s="22"/>
     </row>
     <row r="844">
-      <c r="I844" s="14"/>
-      <c r="K844" s="15"/>
+      <c r="I844" s="21"/>
+      <c r="K844" s="22"/>
     </row>
     <row r="845">
-      <c r="I845" s="14"/>
-      <c r="K845" s="15"/>
+      <c r="I845" s="21"/>
+      <c r="K845" s="22"/>
     </row>
     <row r="846">
-      <c r="I846" s="14"/>
-      <c r="K846" s="15"/>
+      <c r="I846" s="21"/>
+      <c r="K846" s="22"/>
     </row>
     <row r="847">
-      <c r="I847" s="14"/>
-      <c r="K847" s="15"/>
+      <c r="I847" s="21"/>
+      <c r="K847" s="22"/>
     </row>
     <row r="848">
-      <c r="I848" s="14"/>
-      <c r="K848" s="15"/>
+      <c r="I848" s="21"/>
+      <c r="K848" s="22"/>
     </row>
     <row r="849">
-      <c r="I849" s="14"/>
-      <c r="K849" s="15"/>
+      <c r="I849" s="21"/>
+      <c r="K849" s="22"/>
     </row>
     <row r="850">
-      <c r="I850" s="14"/>
-      <c r="K850" s="15"/>
+      <c r="I850" s="21"/>
+      <c r="K850" s="22"/>
     </row>
     <row r="851">
-      <c r="I851" s="14"/>
-      <c r="K851" s="15"/>
+      <c r="I851" s="21"/>
+      <c r="K851" s="22"/>
     </row>
     <row r="852">
-      <c r="I852" s="14"/>
-      <c r="K852" s="15"/>
+      <c r="I852" s="21"/>
+      <c r="K852" s="22"/>
     </row>
     <row r="853">
-      <c r="I853" s="14"/>
-      <c r="K853" s="15"/>
+      <c r="I853" s="21"/>
+      <c r="K853" s="22"/>
     </row>
     <row r="854">
-      <c r="I854" s="14"/>
-      <c r="K854" s="15"/>
+      <c r="I854" s="21"/>
+      <c r="K854" s="22"/>
     </row>
     <row r="855">
-      <c r="I855" s="14"/>
-      <c r="K855" s="15"/>
+      <c r="I855" s="21"/>
+      <c r="K855" s="22"/>
     </row>
     <row r="856">
-      <c r="I856" s="14"/>
-      <c r="K856" s="15"/>
+      <c r="I856" s="21"/>
+      <c r="K856" s="22"/>
     </row>
     <row r="857">
-      <c r="I857" s="14"/>
-      <c r="K857" s="15"/>
+      <c r="I857" s="21"/>
+      <c r="K857" s="22"/>
     </row>
     <row r="858">
-      <c r="I858" s="14"/>
-      <c r="K858" s="15"/>
+      <c r="I858" s="21"/>
+      <c r="K858" s="22"/>
     </row>
     <row r="859">
-      <c r="I859" s="14"/>
-      <c r="K859" s="15"/>
+      <c r="I859" s="21"/>
+      <c r="K859" s="22"/>
     </row>
     <row r="860">
-      <c r="I860" s="14"/>
-      <c r="K860" s="15"/>
+      <c r="I860" s="21"/>
+      <c r="K860" s="22"/>
     </row>
     <row r="861">
-      <c r="I861" s="14"/>
-      <c r="K861" s="15"/>
+      <c r="I861" s="21"/>
+      <c r="K861" s="22"/>
     </row>
     <row r="862">
-      <c r="I862" s="14"/>
-      <c r="K862" s="15"/>
+      <c r="I862" s="21"/>
+      <c r="K862" s="22"/>
     </row>
     <row r="863">
-      <c r="I863" s="14"/>
-      <c r="K863" s="15"/>
+      <c r="I863" s="21"/>
+      <c r="K863" s="22"/>
     </row>
     <row r="864">
-      <c r="I864" s="14"/>
-      <c r="K864" s="15"/>
+      <c r="I864" s="21"/>
+      <c r="K864" s="22"/>
     </row>
     <row r="865">
-      <c r="I865" s="14"/>
-      <c r="K865" s="15"/>
+      <c r="I865" s="21"/>
+      <c r="K865" s="22"/>
     </row>
     <row r="866">
-      <c r="I866" s="14"/>
-      <c r="K866" s="15"/>
+      <c r="I866" s="21"/>
+      <c r="K866" s="22"/>
     </row>
     <row r="867">
-      <c r="I867" s="14"/>
-      <c r="K867" s="15"/>
+      <c r="I867" s="21"/>
+      <c r="K867" s="22"/>
     </row>
     <row r="868">
-      <c r="I868" s="14"/>
-      <c r="K868" s="15"/>
+      <c r="I868" s="21"/>
+      <c r="K868" s="22"/>
     </row>
     <row r="869">
-      <c r="I869" s="14"/>
-      <c r="K869" s="15"/>
+      <c r="I869" s="21"/>
+      <c r="K869" s="22"/>
     </row>
     <row r="870">
-      <c r="I870" s="14"/>
-      <c r="K870" s="15"/>
+      <c r="I870" s="21"/>
+      <c r="K870" s="22"/>
     </row>
     <row r="871">
-      <c r="I871" s="14"/>
-      <c r="K871" s="15"/>
+      <c r="I871" s="21"/>
+      <c r="K871" s="22"/>
     </row>
     <row r="872">
-      <c r="I872" s="14"/>
-      <c r="K872" s="15"/>
+      <c r="I872" s="21"/>
+      <c r="K872" s="22"/>
     </row>
     <row r="873">
-      <c r="I873" s="14"/>
-      <c r="K873" s="15"/>
+      <c r="I873" s="21"/>
+      <c r="K873" s="22"/>
     </row>
     <row r="874">
-      <c r="I874" s="14"/>
-      <c r="K874" s="15"/>
+      <c r="I874" s="21"/>
+      <c r="K874" s="22"/>
     </row>
     <row r="875">
-      <c r="I875" s="14"/>
-      <c r="K875" s="15"/>
+      <c r="I875" s="21"/>
+      <c r="K875" s="22"/>
     </row>
     <row r="876">
-      <c r="I876" s="14"/>
-      <c r="K876" s="15"/>
+      <c r="I876" s="21"/>
+      <c r="K876" s="22"/>
     </row>
     <row r="877">
-      <c r="I877" s="14"/>
-      <c r="K877" s="15"/>
+      <c r="I877" s="21"/>
+      <c r="K877" s="22"/>
     </row>
     <row r="878">
-      <c r="I878" s="14"/>
-      <c r="K878" s="15"/>
+      <c r="I878" s="21"/>
+      <c r="K878" s="22"/>
     </row>
     <row r="879">
-      <c r="I879" s="14"/>
-      <c r="K879" s="15"/>
+      <c r="I879" s="21"/>
+      <c r="K879" s="22"/>
     </row>
     <row r="880">
-      <c r="I880" s="14"/>
-      <c r="K880" s="15"/>
+      <c r="I880" s="21"/>
+      <c r="K880" s="22"/>
     </row>
     <row r="881">
-      <c r="I881" s="14"/>
-      <c r="K881" s="15"/>
+      <c r="I881" s="21"/>
+      <c r="K881" s="22"/>
     </row>
     <row r="882">
-      <c r="I882" s="14"/>
-      <c r="K882" s="15"/>
+      <c r="I882" s="21"/>
+      <c r="K882" s="22"/>
     </row>
     <row r="883">
-      <c r="I883" s="14"/>
-      <c r="K883" s="15"/>
+      <c r="I883" s="21"/>
+      <c r="K883" s="22"/>
     </row>
     <row r="884">
-      <c r="I884" s="14"/>
-      <c r="K884" s="15"/>
+      <c r="I884" s="21"/>
+      <c r="K884" s="22"/>
     </row>
     <row r="885">
-      <c r="I885" s="14"/>
-      <c r="K885" s="15"/>
+      <c r="I885" s="21"/>
+      <c r="K885" s="22"/>
     </row>
     <row r="886">
-      <c r="I886" s="14"/>
-      <c r="K886" s="15"/>
+      <c r="I886" s="21"/>
+      <c r="K886" s="22"/>
     </row>
     <row r="887">
-      <c r="I887" s="14"/>
-      <c r="K887" s="15"/>
+      <c r="I887" s="21"/>
+      <c r="K887" s="22"/>
     </row>
     <row r="888">
-      <c r="I888" s="14"/>
-      <c r="K888" s="15"/>
+      <c r="I888" s="21"/>
+      <c r="K888" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$X$100">
@@ -14291,5 +14670,8 @@
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>